--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/PseudoVoigt.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/PseudoVoigt.xlsx
@@ -688,28 +688,28 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>0.9978598748950315</v>
+        <v>0.9978598947440904</v>
       </c>
       <c r="D2">
-        <v>331.1864147071722</v>
+        <v>331.1864081193348</v>
       </c>
       <c r="E2">
         <v>1447.507792825863</v>
       </c>
       <c r="F2">
-        <v>1116.321378118691</v>
+        <v>1116.321384706528</v>
       </c>
       <c r="G2">
         <v>49149.95191914876</v>
       </c>
       <c r="H2">
-        <v>4064.533789897667</v>
+        <v>4064.596306719501</v>
       </c>
       <c r="I2">
         <v>122.7906831236316</v>
       </c>
       <c r="J2">
-        <v>11.05661505834324</v>
+        <v>11.05672974915624</v>
       </c>
       <c r="K2">
         <v>0.3831064807666387</v>
@@ -721,13 +721,13 @@
         <v>0.4052784519007023</v>
       </c>
       <c r="O2">
-        <v>0.4051986554002917</v>
+        <v>0.4051833396466904</v>
       </c>
       <c r="R2">
-        <v>0.2777579203908771</v>
+        <v>0.2778443611920325</v>
       </c>
       <c r="U2">
-        <v>133.8472981819748</v>
+        <v>133.8474128727878</v>
       </c>
       <c r="V2" t="s">
         <v>42</v>
@@ -774,28 +774,28 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>0.9978264845684438</v>
+        <v>0.9978264841463003</v>
       </c>
       <c r="D3">
-        <v>331.1974972177284</v>
+        <v>331.1974973578458</v>
       </c>
       <c r="E3">
         <v>1447.503005378379</v>
       </c>
       <c r="F3">
-        <v>1116.305508160651</v>
+        <v>1116.305508020533</v>
       </c>
       <c r="G3">
         <v>48194.63317287769</v>
       </c>
       <c r="H3">
-        <v>4249.847562529968</v>
+        <v>4249.843214534011</v>
       </c>
       <c r="I3">
         <v>113.07867258033</v>
       </c>
       <c r="J3">
-        <v>9.905574199300816</v>
+        <v>9.905387025253564</v>
       </c>
       <c r="K3">
         <v>0.3857421018229437</v>
@@ -807,13 +807,13 @@
         <v>0.3997919210046859</v>
       </c>
       <c r="O3">
-        <v>0.4092015030901934</v>
+        <v>0.4092018282907502</v>
       </c>
       <c r="R3">
-        <v>0.2893315385901503</v>
+        <v>0.2893276500200683</v>
       </c>
       <c r="U3">
-        <v>122.9842467796308</v>
+        <v>122.9840596055835</v>
       </c>
       <c r="V3" t="s">
         <v>43</v>
@@ -860,28 +860,28 @@
         <v>35</v>
       </c>
       <c r="C4">
-        <v>0.9978100493648638</v>
+        <v>0.9978100511013438</v>
       </c>
       <c r="D4">
-        <v>331.2029524627376</v>
+        <v>331.202951886348</v>
       </c>
       <c r="E4">
         <v>1447.521962190106</v>
       </c>
       <c r="F4">
-        <v>1116.319009727368</v>
+        <v>1116.319010303758</v>
       </c>
       <c r="G4">
         <v>46080.5820391063</v>
       </c>
       <c r="H4">
-        <v>3842.889327792967</v>
+        <v>3842.899729375626</v>
       </c>
       <c r="I4">
         <v>109.3326913587997</v>
       </c>
       <c r="J4">
-        <v>10.20454699315319</v>
+        <v>10.20424976095746</v>
       </c>
       <c r="K4">
         <v>0.3896353925619085</v>
@@ -893,13 +893,13 @@
         <v>0.4037278728081287</v>
       </c>
       <c r="O4">
-        <v>0.406029354199282</v>
+        <v>0.4060280184160411</v>
       </c>
       <c r="R4">
-        <v>0.2818483432492924</v>
+        <v>0.2818596778159019</v>
       </c>
       <c r="U4">
-        <v>119.5372383519529</v>
+        <v>119.5369411197572</v>
       </c>
       <c r="V4" t="s">
         <v>44</v>
@@ -946,46 +946,46 @@
         <v>36</v>
       </c>
       <c r="C5">
-        <v>0.9977826191167403</v>
+        <v>0.9977826199353224</v>
       </c>
       <c r="D5">
-        <v>331.2120576315301</v>
+        <v>331.2120573598033</v>
       </c>
       <c r="E5">
-        <v>1447.539256607188</v>
+        <v>1447.539256517647</v>
       </c>
       <c r="F5">
-        <v>1116.327198975657</v>
+        <v>1116.327199157843</v>
       </c>
       <c r="G5">
-        <v>44440.93031656819</v>
+        <v>44440.94208149001</v>
       </c>
       <c r="H5">
-        <v>3811.73632650589</v>
+        <v>3811.741752579173</v>
       </c>
       <c r="I5">
-        <v>106.9638193035006</v>
+        <v>106.9637844526894</v>
       </c>
       <c r="J5">
-        <v>10.36376059497544</v>
+        <v>10.36403416891608</v>
       </c>
       <c r="K5">
-        <v>0.3914124453772522</v>
+        <v>0.3914122303326464</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>0.4092332320485933</v>
+        <v>0.4092346670372784</v>
       </c>
       <c r="O5">
-        <v>0.408268983080802</v>
+        <v>0.4082685332737799</v>
       </c>
       <c r="R5">
-        <v>0.2859504501961084</v>
+        <v>0.2859555945166232</v>
       </c>
       <c r="U5">
-        <v>117.327579898476</v>
+        <v>117.3278186216055</v>
       </c>
       <c r="V5" t="s">
         <v>45</v>
@@ -1032,46 +1032,46 @@
         <v>37</v>
       </c>
       <c r="C6">
-        <v>0.9977781959259835</v>
+        <v>0.9977781961815494</v>
       </c>
       <c r="D6">
-        <v>331.2135259078643</v>
+        <v>331.2135258230289</v>
       </c>
       <c r="E6">
-        <v>1447.541011955846</v>
+        <v>1447.541011877824</v>
       </c>
       <c r="F6">
-        <v>1116.327486047981</v>
+        <v>1116.327486054795</v>
       </c>
       <c r="G6">
-        <v>45288.65802026457</v>
+        <v>45288.6685051182</v>
       </c>
       <c r="H6">
-        <v>3947.474001887743</v>
+        <v>3947.474072645499</v>
       </c>
       <c r="I6">
-        <v>110.8975545026324</v>
+        <v>110.8975286659461</v>
       </c>
       <c r="J6">
-        <v>10.91844527632234</v>
+        <v>10.91844426340259</v>
       </c>
       <c r="K6">
-        <v>0.3933160634331454</v>
+        <v>0.3933158787116008</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
-        <v>0.4163750423905612</v>
+        <v>0.4163762871582438</v>
       </c>
       <c r="O6">
-        <v>0.4098356007031487</v>
+        <v>0.4098355853572959</v>
       </c>
       <c r="R6">
-        <v>0.2926682867765248</v>
+        <v>0.2926683754256915</v>
       </c>
       <c r="U6">
-        <v>121.8159997789547</v>
+        <v>121.8159729293486</v>
       </c>
       <c r="V6" t="s">
         <v>46</v>
@@ -1118,46 +1118,46 @@
         <v>38</v>
       </c>
       <c r="C7">
-        <v>0.9977757364064601</v>
+        <v>0.9977757378916616</v>
       </c>
       <c r="D7">
-        <v>331.2143423499801</v>
+        <v>331.2143418569635</v>
       </c>
       <c r="E7">
-        <v>1447.539632775699</v>
+        <v>1447.539632678328</v>
       </c>
       <c r="F7">
-        <v>1116.325290425719</v>
+        <v>1116.325290821365</v>
       </c>
       <c r="G7">
-        <v>46370.32845594533</v>
+        <v>46370.34152536967</v>
       </c>
       <c r="H7">
-        <v>4254.106867098013</v>
+        <v>4254.114625543581</v>
       </c>
       <c r="I7">
-        <v>116.1392453346784</v>
+        <v>116.1392125015711</v>
       </c>
       <c r="J7">
-        <v>11.14489687511127</v>
+        <v>11.14466441693333</v>
       </c>
       <c r="K7">
-        <v>0.3925915975209477</v>
+        <v>0.3925913689007903</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7">
-        <v>0.4170023793372295</v>
+        <v>0.4170039008286233</v>
       </c>
       <c r="O7">
-        <v>0.4046806627826783</v>
+        <v>0.4046797235506435</v>
       </c>
       <c r="R7">
-        <v>0.3126602658776988</v>
+        <v>0.3126677993268265</v>
       </c>
       <c r="U7">
-        <v>127.2841422097897</v>
+        <v>127.2838769185045</v>
       </c>
       <c r="V7" t="s">
         <v>47</v>
@@ -1204,46 +1204,46 @@
         <v>39</v>
       </c>
       <c r="C8">
-        <v>0.9977600520376002</v>
+        <v>0.9977600521657477</v>
       </c>
       <c r="D8">
-        <v>331.2195489002991</v>
+        <v>331.2195488577588</v>
       </c>
       <c r="E8">
-        <v>1447.534557989444</v>
+        <v>1447.534557917312</v>
       </c>
       <c r="F8">
-        <v>1116.315009089145</v>
+        <v>1116.315009059553</v>
       </c>
       <c r="G8">
-        <v>44105.48585228706</v>
+        <v>44105.4950117788</v>
       </c>
       <c r="H8">
-        <v>3915.579111694675</v>
+        <v>3915.578860588823</v>
       </c>
       <c r="I8">
-        <v>102.6329731317136</v>
+        <v>102.6329447904083</v>
       </c>
       <c r="J8">
-        <v>11.2239343562494</v>
+        <v>11.22393389599875</v>
       </c>
       <c r="K8">
-        <v>0.3949880991427017</v>
+        <v>0.3949879232733975</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8">
-        <v>0.4058032078885007</v>
+        <v>0.405804338418588</v>
       </c>
       <c r="O8">
-        <v>0.4070156577631185</v>
+        <v>0.4070157179008635</v>
       </c>
       <c r="R8">
-        <v>0.3022478719729371</v>
+        <v>0.3022475171886146</v>
       </c>
       <c r="U8">
-        <v>113.856907487963</v>
+        <v>113.856878686407</v>
       </c>
       <c r="V8" t="s">
         <v>48</v>
@@ -1290,28 +1290,28 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>0.9977557131016167</v>
+        <v>0.9977557134267026</v>
       </c>
       <c r="D9">
-        <v>331.2209892733285</v>
+        <v>331.2209891654111</v>
       </c>
       <c r="E9">
         <v>1447.516894430937</v>
       </c>
       <c r="F9">
-        <v>1116.295905157608</v>
+        <v>1116.295905265526</v>
       </c>
       <c r="G9">
         <v>43261.39620536859</v>
       </c>
       <c r="H9">
-        <v>3835.072357587466</v>
+        <v>3835.073084646454</v>
       </c>
       <c r="I9">
         <v>108.0927734525863</v>
       </c>
       <c r="J9">
-        <v>11.09515365499614</v>
+        <v>11.09513910960653</v>
       </c>
       <c r="K9">
         <v>0.3929697374024198</v>
@@ -1323,13 +1323,13 @@
         <v>0.4140404384125004</v>
       </c>
       <c r="O9">
-        <v>0.407302944997953</v>
+        <v>0.4073026887334389</v>
       </c>
       <c r="R9">
-        <v>0.3142047972895564</v>
+        <v>0.3142061820215845</v>
       </c>
       <c r="U9">
-        <v>119.1879271075825</v>
+        <v>119.1879125621929</v>
       </c>
       <c r="V9" t="s">
         <v>49</v>
@@ -1376,46 +1376,46 @@
         <v>41</v>
       </c>
       <c r="C10">
-        <v>0.9977568852681804</v>
+        <v>0.9977568843190179</v>
       </c>
       <c r="D10">
-        <v>331.2206001543211</v>
+        <v>331.2206004694101</v>
       </c>
       <c r="E10">
-        <v>1447.524737042657</v>
+        <v>1447.52473694658</v>
       </c>
       <c r="F10">
-        <v>1116.304136888336</v>
+        <v>1116.30413647717</v>
       </c>
       <c r="G10">
-        <v>43156.98249414554</v>
+        <v>43156.99292466421</v>
       </c>
       <c r="H10">
-        <v>3790.657402008071</v>
+        <v>3790.648631944272</v>
       </c>
       <c r="I10">
-        <v>103.7940668275021</v>
+        <v>103.7940398613961</v>
       </c>
       <c r="J10">
-        <v>11.52918201211311</v>
+        <v>11.52920948130193</v>
       </c>
       <c r="K10">
-        <v>0.3925623808977783</v>
+        <v>0.3925621554710648</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10">
-        <v>0.4168842486318649</v>
+        <v>0.4168855768793007</v>
       </c>
       <c r="O10">
-        <v>0.4084567447243828</v>
+        <v>0.4084576999097317</v>
       </c>
       <c r="R10">
-        <v>0.3084538652205598</v>
+        <v>0.3084445883022974</v>
       </c>
       <c r="U10">
-        <v>115.3232488396152</v>
+        <v>115.323249342698</v>
       </c>
       <c r="V10" t="s">
         <v>50</v>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/PseudoVoigt.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/PseudoVoigt.xlsx
@@ -688,46 +688,46 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>0.9978598947440904</v>
+        <v>0.9978598860796034</v>
       </c>
       <c r="D2">
-        <v>331.1864081193348</v>
+        <v>331.1864109950495</v>
       </c>
       <c r="E2">
-        <v>1447.507792825863</v>
+        <v>1447.507791711392</v>
       </c>
       <c r="F2">
-        <v>1116.321384706528</v>
+        <v>1116.321380716343</v>
       </c>
       <c r="G2">
-        <v>49149.95191914876</v>
+        <v>49150.03938907994</v>
       </c>
       <c r="H2">
-        <v>4064.596306719501</v>
+        <v>4064.558187163267</v>
       </c>
       <c r="I2">
-        <v>122.7906831236316</v>
+        <v>122.7893778732266</v>
       </c>
       <c r="J2">
-        <v>11.05672974915624</v>
+        <v>11.05666675102492</v>
       </c>
       <c r="K2">
-        <v>0.3831064807666387</v>
+        <v>0.3831035754123102</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.00257</v>
       </c>
       <c r="N2">
-        <v>0.4052784519007023</v>
+        <v>0.405291536749454</v>
       </c>
       <c r="O2">
-        <v>0.4051833396466904</v>
+        <v>0.4051926385781137</v>
       </c>
       <c r="R2">
-        <v>0.2778443611920325</v>
+        <v>0.2777918959682644</v>
       </c>
       <c r="U2">
-        <v>133.8474128727878</v>
+        <v>133.8460446242515</v>
       </c>
       <c r="V2" t="s">
         <v>42</v>
@@ -774,46 +774,46 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>0.9978264841463003</v>
+        <v>0.9978264842220211</v>
       </c>
       <c r="D3">
-        <v>331.1974973578458</v>
+        <v>331.1974973327126</v>
       </c>
       <c r="E3">
-        <v>1447.503005378379</v>
+        <v>1447.503005381121</v>
       </c>
       <c r="F3">
-        <v>1116.305508020533</v>
+        <v>1116.305508048408</v>
       </c>
       <c r="G3">
-        <v>48194.63317287769</v>
+        <v>48194.63294913297</v>
       </c>
       <c r="H3">
-        <v>4249.843214534011</v>
+        <v>4249.843322072755</v>
       </c>
       <c r="I3">
-        <v>113.07867258033</v>
+        <v>113.0786756227321</v>
       </c>
       <c r="J3">
-        <v>9.905387025253564</v>
+        <v>9.905378667281072</v>
       </c>
       <c r="K3">
-        <v>0.3857421018229437</v>
+        <v>0.3857421092605332</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.0024</v>
       </c>
       <c r="N3">
-        <v>0.3997919210046859</v>
+        <v>0.3997918883762511</v>
       </c>
       <c r="O3">
-        <v>0.4092018282907502</v>
+        <v>0.4092017687249572</v>
       </c>
       <c r="R3">
-        <v>0.2893276500200683</v>
+        <v>0.2893279115707663</v>
       </c>
       <c r="U3">
-        <v>122.9840596055835</v>
+        <v>122.9840542900132</v>
       </c>
       <c r="V3" t="s">
         <v>43</v>
@@ -860,46 +860,46 @@
         <v>35</v>
       </c>
       <c r="C4">
-        <v>0.9978100511013438</v>
+        <v>0.9978100509622898</v>
       </c>
       <c r="D4">
-        <v>331.202951886348</v>
+        <v>331.2029519325042</v>
       </c>
       <c r="E4">
-        <v>1447.521962190106</v>
+        <v>1447.521962191433</v>
       </c>
       <c r="F4">
-        <v>1116.319010303758</v>
+        <v>1116.319010258929</v>
       </c>
       <c r="G4">
-        <v>46080.5820391063</v>
+        <v>46080.58188972915</v>
       </c>
       <c r="H4">
-        <v>3842.899729375626</v>
+        <v>3842.899468127829</v>
       </c>
       <c r="I4">
-        <v>109.3326913587997</v>
+        <v>109.3326919313476</v>
       </c>
       <c r="J4">
-        <v>10.20424976095746</v>
+        <v>10.20425453009774</v>
       </c>
       <c r="K4">
-        <v>0.3896353925619085</v>
+        <v>0.3896353958047211</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.00243</v>
       </c>
       <c r="N4">
-        <v>0.4037278728081287</v>
+        <v>0.4037278540818179</v>
       </c>
       <c r="O4">
-        <v>0.4060280184160411</v>
+        <v>0.406028126976008</v>
       </c>
       <c r="R4">
-        <v>0.2818596778159019</v>
+        <v>0.2818591713753829</v>
       </c>
       <c r="U4">
-        <v>119.5369411197572</v>
+        <v>119.5369464614454</v>
       </c>
       <c r="V4" t="s">
         <v>44</v>
@@ -946,46 +946,46 @@
         <v>36</v>
       </c>
       <c r="C5">
-        <v>0.9977826199353224</v>
+        <v>0.9977826198315874</v>
       </c>
       <c r="D5">
-        <v>331.2120573598033</v>
+        <v>331.2120573942379</v>
       </c>
       <c r="E5">
-        <v>1447.539256517647</v>
+        <v>1447.539256518417</v>
       </c>
       <c r="F5">
-        <v>1116.327199157843</v>
+        <v>1116.32719912418</v>
       </c>
       <c r="G5">
-        <v>44440.94208149001</v>
+        <v>44440.9420876005</v>
       </c>
       <c r="H5">
-        <v>3811.741752579173</v>
+        <v>3811.741538015277</v>
       </c>
       <c r="I5">
-        <v>106.9637844526894</v>
+        <v>106.9637865077495</v>
       </c>
       <c r="J5">
-        <v>10.36403416891608</v>
+        <v>10.3640434290363</v>
       </c>
       <c r="K5">
-        <v>0.3914122303326464</v>
+        <v>0.3914122320374968</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.00242</v>
       </c>
       <c r="N5">
-        <v>0.4092346670372784</v>
+        <v>0.4092346608981216</v>
       </c>
       <c r="O5">
-        <v>0.4082685332737799</v>
+        <v>0.4082686204524233</v>
       </c>
       <c r="R5">
-        <v>0.2859555945166232</v>
+        <v>0.2859551890196305</v>
       </c>
       <c r="U5">
-        <v>117.3278186216055</v>
+        <v>117.3278299367858</v>
       </c>
       <c r="V5" t="s">
         <v>45</v>
@@ -1032,46 +1032,46 @@
         <v>37</v>
       </c>
       <c r="C6">
-        <v>0.9977781961815494</v>
+        <v>0.9977781961827885</v>
       </c>
       <c r="D6">
-        <v>331.2135258230289</v>
+        <v>331.2135258226176</v>
       </c>
       <c r="E6">
-        <v>1447.541011877824</v>
+        <v>1447.541011877257</v>
       </c>
       <c r="F6">
-        <v>1116.327486054795</v>
+        <v>1116.32748605464</v>
       </c>
       <c r="G6">
-        <v>45288.6685051182</v>
+        <v>45288.66855610132</v>
       </c>
       <c r="H6">
-        <v>3947.474072645499</v>
+        <v>3947.474007742397</v>
       </c>
       <c r="I6">
-        <v>110.8975286659461</v>
+        <v>110.8975282102296</v>
       </c>
       <c r="J6">
-        <v>10.91844426340259</v>
+        <v>10.91844694552933</v>
       </c>
       <c r="K6">
-        <v>0.3933158787116008</v>
+        <v>0.3933158774344163</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0.00251</v>
       </c>
       <c r="N6">
-        <v>0.4163762871582438</v>
+        <v>0.4163762948292194</v>
       </c>
       <c r="O6">
-        <v>0.4098355853572959</v>
+        <v>0.4098356067117886</v>
       </c>
       <c r="R6">
-        <v>0.2926683754256915</v>
+        <v>0.2926682750136492</v>
       </c>
       <c r="U6">
-        <v>121.8159729293486</v>
+        <v>121.8159751557589</v>
       </c>
       <c r="V6" t="s">
         <v>46</v>
@@ -1118,46 +1118,46 @@
         <v>38</v>
       </c>
       <c r="C7">
-        <v>0.9977757378916616</v>
+        <v>0.9977757376086445</v>
       </c>
       <c r="D7">
-        <v>331.2143418569635</v>
+        <v>331.2143419509118</v>
       </c>
       <c r="E7">
-        <v>1447.539632678328</v>
+        <v>1447.539632678197</v>
       </c>
       <c r="F7">
-        <v>1116.325290821365</v>
+        <v>1116.325290727285</v>
       </c>
       <c r="G7">
-        <v>46370.34152536967</v>
+        <v>46370.34161343362</v>
       </c>
       <c r="H7">
-        <v>4254.114625543581</v>
+        <v>4254.113932537593</v>
       </c>
       <c r="I7">
-        <v>116.1392125015711</v>
+        <v>116.1392139824934</v>
       </c>
       <c r="J7">
-        <v>11.14466441693333</v>
+        <v>11.14466613244929</v>
       </c>
       <c r="K7">
-        <v>0.3925913689007903</v>
+        <v>0.3925913687643211</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0.00257</v>
       </c>
       <c r="N7">
-        <v>0.4170039008286233</v>
+        <v>0.4170039054175857</v>
       </c>
       <c r="O7">
-        <v>0.4046797235506435</v>
+        <v>0.4046799468180172</v>
       </c>
       <c r="R7">
-        <v>0.3126677993268265</v>
+        <v>0.3126667295825205</v>
       </c>
       <c r="U7">
-        <v>127.2838769185045</v>
+        <v>127.2838801149427</v>
       </c>
       <c r="V7" t="s">
         <v>47</v>
@@ -1204,46 +1204,46 @@
         <v>39</v>
       </c>
       <c r="C8">
-        <v>0.9977600521657477</v>
+        <v>0.9977600522180604</v>
       </c>
       <c r="D8">
-        <v>331.2195488577588</v>
+        <v>331.2195488403929</v>
       </c>
       <c r="E8">
-        <v>1447.534557917312</v>
+        <v>1447.534557918229</v>
       </c>
       <c r="F8">
-        <v>1116.315009059553</v>
+        <v>1116.315009077836</v>
       </c>
       <c r="G8">
-        <v>44105.4950117788</v>
+        <v>44105.49495871713</v>
       </c>
       <c r="H8">
-        <v>3915.578860588823</v>
+        <v>3915.579106587391</v>
       </c>
       <c r="I8">
-        <v>102.6329447904083</v>
+        <v>102.6329463068532</v>
       </c>
       <c r="J8">
-        <v>11.22393389599875</v>
+        <v>11.22393580305652</v>
       </c>
       <c r="K8">
-        <v>0.3949879232733975</v>
+        <v>0.3949879254397151</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.00236</v>
       </c>
       <c r="N8">
-        <v>0.405804338418588</v>
+        <v>0.4058043278678481</v>
       </c>
       <c r="O8">
-        <v>0.4070157179008635</v>
+        <v>0.407015676152061</v>
       </c>
       <c r="R8">
-        <v>0.3022475171886146</v>
+        <v>0.3022478161742768</v>
       </c>
       <c r="U8">
-        <v>113.856878686407</v>
+        <v>113.8568821099097</v>
       </c>
       <c r="V8" t="s">
         <v>48</v>
@@ -1290,46 +1290,46 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>0.9977557134267026</v>
+        <v>0.9977557132171323</v>
       </c>
       <c r="D9">
-        <v>331.2209891654111</v>
+        <v>331.2209892349813</v>
       </c>
       <c r="E9">
-        <v>1447.516894430937</v>
+        <v>1447.516894431486</v>
       </c>
       <c r="F9">
-        <v>1116.295905265526</v>
+        <v>1116.295905196504</v>
       </c>
       <c r="G9">
-        <v>43261.39620536859</v>
+        <v>43261.39606674626</v>
       </c>
       <c r="H9">
-        <v>3835.073084646454</v>
+        <v>3835.072595910358</v>
       </c>
       <c r="I9">
-        <v>108.0927734525863</v>
+        <v>108.0927717612777</v>
       </c>
       <c r="J9">
-        <v>11.09513910960653</v>
+        <v>11.09514505542197</v>
       </c>
       <c r="K9">
-        <v>0.3929697374024198</v>
+        <v>0.3929697387808552</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.00257</v>
       </c>
       <c r="N9">
-        <v>0.4140404384125004</v>
+        <v>0.4140404255556192</v>
       </c>
       <c r="O9">
-        <v>0.4073026887334389</v>
+        <v>0.4073028395439339</v>
       </c>
       <c r="R9">
-        <v>0.3142061820215845</v>
+        <v>0.3142053281481823</v>
       </c>
       <c r="U9">
-        <v>119.1879125621929</v>
+        <v>119.1879168166997</v>
       </c>
       <c r="V9" t="s">
         <v>49</v>
@@ -1376,46 +1376,46 @@
         <v>41</v>
       </c>
       <c r="C10">
-        <v>0.9977568843190179</v>
+        <v>0.9977568843223</v>
       </c>
       <c r="D10">
-        <v>331.2206004694101</v>
+        <v>331.2206004683205</v>
       </c>
       <c r="E10">
-        <v>1447.52473694658</v>
+        <v>1447.524736945334</v>
       </c>
       <c r="F10">
-        <v>1116.30413647717</v>
+        <v>1116.304136477014</v>
       </c>
       <c r="G10">
-        <v>43156.99292466421</v>
+        <v>43156.99290066765</v>
       </c>
       <c r="H10">
-        <v>3790.648631944272</v>
+        <v>3790.648654420056</v>
       </c>
       <c r="I10">
-        <v>103.7940398613961</v>
+        <v>103.7940358126246</v>
       </c>
       <c r="J10">
-        <v>11.52920948130193</v>
+        <v>11.52920847606356</v>
       </c>
       <c r="K10">
-        <v>0.3925621554710648</v>
+        <v>0.3925621523975833</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.00244</v>
       </c>
       <c r="N10">
-        <v>0.4168855768793007</v>
+        <v>0.4168855850620845</v>
       </c>
       <c r="O10">
-        <v>0.4084576999097317</v>
+        <v>0.4084576872680725</v>
       </c>
       <c r="R10">
-        <v>0.3084445883022974</v>
+        <v>0.3084446521308241</v>
       </c>
       <c r="U10">
-        <v>115.323249342698</v>
+        <v>115.3232442886881</v>
       </c>
       <c r="V10" t="s">
         <v>50</v>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/PseudoVoigt.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/PseudoVoigt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>filename_x</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Ne_Corr</t>
   </si>
   <si>
+    <t>1σ_Ne_Corr</t>
+  </si>
+  <si>
     <t>deltaNe</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t>residual_pk1</t>
+  </si>
+  <si>
+    <t>1σ_Ne_Corr_test</t>
   </si>
   <si>
     <t>pk2_sigma</t>
@@ -573,13 +579,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:36">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,778 +685,919 @@
       <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:36">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>0.9978598860796034</v>
+        <v>0.997896561051162</v>
       </c>
       <c r="D2">
-        <v>331.1864109950495</v>
+        <v>5.2313663083804E-05</v>
       </c>
       <c r="E2">
-        <v>1447.507791711392</v>
+        <v>331.1742391400919</v>
       </c>
       <c r="F2">
-        <v>1116.321380716343</v>
+        <v>1447.507791470684</v>
       </c>
       <c r="G2">
-        <v>49150.03938907994</v>
+        <v>1116.333552330592</v>
       </c>
       <c r="H2">
-        <v>4064.558187163267</v>
+        <v>49150.08368332532</v>
       </c>
       <c r="I2">
-        <v>122.7893778732266</v>
+        <v>4362.491833843183</v>
       </c>
       <c r="J2">
-        <v>11.05666675102492</v>
+        <v>122.7916866730891</v>
       </c>
       <c r="K2">
-        <v>0.3831035754123102</v>
+        <v>37.58367137295518</v>
+      </c>
+      <c r="L2">
+        <v>5.2313663083804E-05</v>
       </c>
       <c r="M2">
-        <v>0.00257</v>
-      </c>
-      <c r="N2">
-        <v>0.405291536749454</v>
+        <v>0.3831036278813937</v>
       </c>
       <c r="O2">
-        <v>0.4051926385781137</v>
-      </c>
-      <c r="R2">
-        <v>0.2777918959682644</v>
+        <v>0.00258</v>
+      </c>
+      <c r="P2">
+        <v>0.4052948892728901</v>
+      </c>
+      <c r="Q2">
+        <v>0.3763711165836202</v>
+      </c>
+      <c r="S2">
+        <v>0.01713175594471568</v>
+      </c>
+      <c r="T2">
+        <v>0.5361673414973488</v>
       </c>
       <c r="U2">
-        <v>133.8460446242515</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
+        <v>0.997837168983715</v>
+      </c>
+      <c r="V2">
+        <v>0.9979559601891567</v>
+      </c>
+      <c r="W2">
+        <v>160.3753580460443</v>
       </c>
       <c r="X2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Y2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2">
         <v>28</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>45</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>3</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>50</v>
       </c>
-      <c r="AE2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>55</v>
       </c>
-      <c r="AG2">
+      <c r="AH2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2">
         <v>43098</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>1325.004</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:36">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>0.9978264842220211</v>
+        <v>0.9978583919231533</v>
       </c>
       <c r="D3">
-        <v>331.1974973327126</v>
+        <v>4.565285348953152E-05</v>
       </c>
       <c r="E3">
-        <v>1447.503005381121</v>
+        <v>331.1869069013987</v>
       </c>
       <c r="F3">
-        <v>1116.305508048408</v>
+        <v>1447.503005379295</v>
       </c>
       <c r="G3">
-        <v>48194.63294913297</v>
+        <v>1116.316098477896</v>
       </c>
       <c r="H3">
-        <v>4249.843322072755</v>
+        <v>48194.63313585275</v>
       </c>
       <c r="I3">
-        <v>113.0786756227321</v>
+        <v>4544.459593314094</v>
       </c>
       <c r="J3">
-        <v>9.905378667281072</v>
+        <v>113.0786744682815</v>
       </c>
       <c r="K3">
-        <v>0.3857421092605332</v>
+        <v>38.28659309920371</v>
+      </c>
+      <c r="L3">
+        <v>4.565285348953152E-05</v>
       </c>
       <c r="M3">
+        <v>0.3857421043462351</v>
+      </c>
+      <c r="O3">
         <v>0.0024</v>
       </c>
-      <c r="N3">
-        <v>0.3997918883762511</v>
-      </c>
-      <c r="O3">
-        <v>0.4092017687249572</v>
-      </c>
-      <c r="R3">
-        <v>0.2893279115707663</v>
+      <c r="P3">
+        <v>0.3997919120177397</v>
+      </c>
+      <c r="Q3">
+        <v>0.3858251015384753</v>
+      </c>
+      <c r="S3">
+        <v>0.01492793123151088</v>
+      </c>
+      <c r="T3">
+        <v>0.5337599099023718</v>
       </c>
       <c r="U3">
-        <v>122.9840542900132</v>
-      </c>
-      <c r="V3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" t="s">
-        <v>34</v>
+        <v>0.9978061860037365</v>
+      </c>
+      <c r="V3">
+        <v>0.9979106033057565</v>
+      </c>
+      <c r="W3">
+        <v>151.3652675674852</v>
       </c>
       <c r="X3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Y3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z3">
+        <v>36</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3">
         <v>28</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>45</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>3</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>50</v>
       </c>
-      <c r="AE3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG3">
+      <c r="AG3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3">
         <v>44751</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>1325.004</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:36">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>0.9978100509622898</v>
+        <v>0.9978480989385766</v>
       </c>
       <c r="D4">
-        <v>331.2029519325042</v>
+        <v>5.278855377126057E-05</v>
       </c>
       <c r="E4">
-        <v>1447.521962191433</v>
+        <v>331.1903231545623</v>
       </c>
       <c r="F4">
-        <v>1116.319010258929</v>
+        <v>1447.52196219285</v>
       </c>
       <c r="G4">
-        <v>46080.58188972915</v>
+        <v>1116.331639038288</v>
       </c>
       <c r="H4">
-        <v>3842.899468127829</v>
+        <v>46080.5818281855</v>
       </c>
       <c r="I4">
-        <v>109.3326919313476</v>
+        <v>4139.825469419876</v>
       </c>
       <c r="J4">
-        <v>10.20425453009774</v>
+        <v>109.3326948181962</v>
       </c>
       <c r="K4">
-        <v>0.3896353958047211</v>
+        <v>38.03395610910056</v>
+      </c>
+      <c r="L4">
+        <v>5.278855377126057E-05</v>
       </c>
       <c r="M4">
+        <v>0.3896353991242444</v>
+      </c>
+      <c r="O4">
         <v>0.00243</v>
       </c>
-      <c r="N4">
-        <v>0.4037278540818179</v>
-      </c>
-      <c r="O4">
-        <v>0.406028126976008</v>
-      </c>
-      <c r="R4">
-        <v>0.2818591713753829</v>
+      <c r="P4">
+        <v>0.4037278410759856</v>
+      </c>
+      <c r="Q4">
+        <v>0.3763134693951743</v>
+      </c>
+      <c r="S4">
+        <v>0.01731335967996931</v>
+      </c>
+      <c r="T4">
+        <v>0.5525655849656694</v>
       </c>
       <c r="U4">
-        <v>119.5369464614454</v>
-      </c>
-      <c r="V4" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" t="s">
-        <v>35</v>
+        <v>0.9977886174314755</v>
+      </c>
+      <c r="V4">
+        <v>0.9979075875378826</v>
+      </c>
+      <c r="W4">
+        <v>147.3666509272968</v>
       </c>
       <c r="X4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Y4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z4">
+        <v>37</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4">
         <v>28</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>45</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>3</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>50</v>
       </c>
-      <c r="AE4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG4">
+      <c r="AG4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI4">
         <v>46976</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>1325.004</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:36">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5">
-        <v>0.9977826198315874</v>
+        <v>0.9978207612558156</v>
       </c>
       <c r="D5">
-        <v>331.2120573942379</v>
+        <v>5.436060948940768E-05</v>
       </c>
       <c r="E5">
-        <v>1447.539256518417</v>
+        <v>331.1993969044174</v>
       </c>
       <c r="F5">
-        <v>1116.32719912418</v>
+        <v>1447.539256517825</v>
       </c>
       <c r="G5">
-        <v>44440.9420876005</v>
+        <v>1116.339859613408</v>
       </c>
       <c r="H5">
-        <v>3811.741538015277</v>
+        <v>44440.94210167753</v>
       </c>
       <c r="I5">
-        <v>106.9637865077495</v>
+        <v>4104.992300320984</v>
       </c>
       <c r="J5">
-        <v>10.3640434290363</v>
+        <v>106.9637850463319</v>
       </c>
       <c r="K5">
-        <v>0.3914122320374968</v>
+        <v>37.25137617544495</v>
+      </c>
+      <c r="L5">
+        <v>5.436060948940769E-05</v>
       </c>
       <c r="M5">
+        <v>0.3914122306868553</v>
+      </c>
+      <c r="O5">
         <v>0.00242</v>
       </c>
-      <c r="N5">
-        <v>0.4092346608981216</v>
-      </c>
-      <c r="O5">
-        <v>0.4082686204524233</v>
-      </c>
-      <c r="R5">
-        <v>0.2859551890196305</v>
+      <c r="P5">
+        <v>0.4092346664193698</v>
+      </c>
+      <c r="Q5">
+        <v>0.3768098899441449</v>
+      </c>
+      <c r="S5">
+        <v>0.01784081994937452</v>
+      </c>
+      <c r="T5">
+        <v>0.5548291256835796</v>
       </c>
       <c r="U5">
-        <v>117.3278299367858</v>
-      </c>
-      <c r="V5" t="s">
+        <v>0.9977597242179642</v>
+      </c>
+      <c r="V5">
+        <v>0.9978818057618939</v>
+      </c>
+      <c r="W5">
+        <v>144.2151612217769</v>
+      </c>
+      <c r="X5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB5">
+        <v>28</v>
+      </c>
+      <c r="AD5">
         <v>45</v>
       </c>
-      <c r="W5" t="s">
-        <v>36</v>
-      </c>
-      <c r="X5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z5">
-        <v>28</v>
-      </c>
-      <c r="AB5">
-        <v>45</v>
-      </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>3</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>50</v>
       </c>
-      <c r="AE5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG5">
+      <c r="AG5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI5">
         <v>48884</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>1325.004</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:36">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>0.9977781961827885</v>
+        <v>0.997814122301193</v>
       </c>
       <c r="D6">
-        <v>331.2135258226176</v>
+        <v>4.974505513910675E-05</v>
       </c>
       <c r="E6">
-        <v>1447.541011877257</v>
+        <v>331.2016005390603</v>
       </c>
       <c r="F6">
-        <v>1116.32748605464</v>
+        <v>1447.541011877073</v>
       </c>
       <c r="G6">
-        <v>45288.66855610132</v>
+        <v>1116.339411338013</v>
       </c>
       <c r="H6">
-        <v>3947.474007742397</v>
+        <v>45288.66849869065</v>
       </c>
       <c r="I6">
-        <v>110.8975282102296</v>
+        <v>4234.837719550555</v>
       </c>
       <c r="J6">
-        <v>10.91844694552933</v>
+        <v>110.8975262025576</v>
       </c>
       <c r="K6">
-        <v>0.3933158774344163</v>
+        <v>36.32281847508872</v>
+      </c>
+      <c r="L6">
+        <v>4.974505513910675E-05</v>
       </c>
       <c r="M6">
+        <v>0.3933158769491476</v>
+      </c>
+      <c r="O6">
         <v>0.00251</v>
       </c>
-      <c r="N6">
-        <v>0.4163762948292194</v>
-      </c>
-      <c r="O6">
-        <v>0.4098356067117886</v>
-      </c>
-      <c r="R6">
-        <v>0.2926682750136492</v>
+      <c r="P6">
+        <v>0.4163762931265969</v>
+      </c>
+      <c r="Q6">
+        <v>0.380078782203427</v>
+      </c>
+      <c r="S6">
+        <v>0.01628332507168512</v>
+      </c>
+      <c r="T6">
+        <v>0.5479834507061182</v>
       </c>
       <c r="U6">
-        <v>121.8159751557589</v>
-      </c>
-      <c r="V6" t="s">
-        <v>46</v>
-      </c>
-      <c r="W6" t="s">
-        <v>37</v>
+        <v>0.9977575066896275</v>
+      </c>
+      <c r="V6">
+        <v>0.9978707443381863</v>
+      </c>
+      <c r="W6">
+        <v>147.2203446776463</v>
       </c>
       <c r="X6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Y6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z6">
+        <v>39</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB6">
         <v>28</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>45</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>3</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>50</v>
       </c>
-      <c r="AE6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG6">
+      <c r="AG6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI6">
         <v>50800</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>1325.004</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:36">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>0.9977757376086445</v>
+        <v>0.9978118213301276</v>
       </c>
       <c r="D7">
-        <v>331.2143419509118</v>
+        <v>4.719378782912015E-05</v>
       </c>
       <c r="E7">
-        <v>1447.539632678197</v>
+        <v>331.2023642955958</v>
       </c>
       <c r="F7">
-        <v>1116.325290727285</v>
+        <v>1447.539632678569</v>
       </c>
       <c r="G7">
-        <v>46370.34161343362</v>
+        <v>1116.337268382974</v>
       </c>
       <c r="H7">
-        <v>4254.113932537593</v>
+        <v>46370.34172043425</v>
       </c>
       <c r="I7">
-        <v>116.1392139824934</v>
+        <v>4553.967972168738</v>
       </c>
       <c r="J7">
-        <v>11.14466613244929</v>
+        <v>116.1392179472612</v>
       </c>
       <c r="K7">
-        <v>0.3925913687643211</v>
+        <v>38.2180215543431</v>
+      </c>
+      <c r="L7">
+        <v>4.719378782912015E-05</v>
       </c>
       <c r="M7">
+        <v>0.3925913697662347</v>
+      </c>
+      <c r="O7">
         <v>0.00257</v>
       </c>
-      <c r="N7">
-        <v>0.4170039054175857</v>
-      </c>
-      <c r="O7">
-        <v>0.4046799468180172</v>
-      </c>
-      <c r="R7">
-        <v>0.3126667295825205</v>
+      <c r="P7">
+        <v>0.4170039082183471</v>
+      </c>
+      <c r="Q7">
+        <v>0.3753430593565169</v>
+      </c>
+      <c r="S7">
+        <v>0.01541796673790983</v>
+      </c>
+      <c r="T7">
+        <v>0.5602802454198087</v>
       </c>
       <c r="U7">
-        <v>127.2838801149427</v>
-      </c>
-      <c r="V7" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" t="s">
-        <v>38</v>
+        <v>0.997757632009543</v>
+      </c>
+      <c r="V7">
+        <v>0.9978660165371958</v>
+      </c>
+      <c r="W7">
+        <v>154.3572395016043</v>
       </c>
       <c r="X7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z7">
+        <v>40</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB7">
         <v>28</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>45</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>3</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>50</v>
       </c>
-      <c r="AE7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG7">
+      <c r="AG7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI7">
         <v>51928</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>1325.004</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:36">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8">
-        <v>0.9977600522180604</v>
+        <v>0.9977938696549881</v>
       </c>
       <c r="D8">
-        <v>331.2195488403929</v>
+        <v>5.095573021791144E-05</v>
       </c>
       <c r="E8">
-        <v>1447.534557918229</v>
+        <v>331.2083230786973</v>
       </c>
       <c r="F8">
-        <v>1116.315009077836</v>
+        <v>1447.534557918066</v>
       </c>
       <c r="G8">
-        <v>44105.49495871713</v>
+        <v>1116.326234839368</v>
       </c>
       <c r="H8">
-        <v>3915.579106587391</v>
+        <v>44105.49498359848</v>
       </c>
       <c r="I8">
-        <v>102.6329463068532</v>
+        <v>4185.412713453706</v>
       </c>
       <c r="J8">
-        <v>11.22393580305652</v>
+        <v>102.6329463740702</v>
       </c>
       <c r="K8">
-        <v>0.3949879254397151</v>
+        <v>36.12998131686069</v>
+      </c>
+      <c r="L8">
+        <v>5.095573021791144E-05</v>
       </c>
       <c r="M8">
+        <v>0.3949879250724433</v>
+      </c>
+      <c r="O8">
         <v>0.00236</v>
       </c>
-      <c r="N8">
-        <v>0.4058043278678481</v>
-      </c>
-      <c r="O8">
-        <v>0.407015676152061</v>
-      </c>
-      <c r="R8">
-        <v>0.3022478161742768</v>
+      <c r="P8">
+        <v>0.405804330521413</v>
+      </c>
+      <c r="Q8">
+        <v>0.3811301482375072</v>
+      </c>
+      <c r="S8">
+        <v>0.01671114134009826</v>
+      </c>
+      <c r="T8">
+        <v>0.5454149348693331</v>
       </c>
       <c r="U8">
-        <v>113.8568821099097</v>
-      </c>
-      <c r="V8" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" t="s">
-        <v>39</v>
+        <v>0.9977364194916006</v>
+      </c>
+      <c r="V8">
+        <v>0.9978513264347749</v>
+      </c>
+      <c r="W8">
+        <v>138.7629276909309</v>
       </c>
       <c r="X8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y8" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z8">
+        <v>41</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB8">
         <v>28</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>45</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>3</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>50</v>
       </c>
-      <c r="AE8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG8">
+      <c r="AG8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI8">
         <v>53232</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>1325.004</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:36">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>0.9977557132171323</v>
+        <v>0.9977864113292008</v>
       </c>
       <c r="D9">
-        <v>331.2209892349813</v>
+        <v>5.124867353342821E-05</v>
       </c>
       <c r="E9">
-        <v>1447.516894431486</v>
+        <v>331.2107988185439</v>
       </c>
       <c r="F9">
-        <v>1116.295905196504</v>
+        <v>1447.51689443075</v>
       </c>
       <c r="G9">
-        <v>43261.39606674626</v>
+        <v>1116.306095612206</v>
       </c>
       <c r="H9">
-        <v>3835.072595910358</v>
+        <v>43261.39615175885</v>
       </c>
       <c r="I9">
-        <v>108.0927717612777</v>
+        <v>4093.701781113318</v>
       </c>
       <c r="J9">
-        <v>11.09514505542197</v>
+        <v>108.0927715843943</v>
       </c>
       <c r="K9">
-        <v>0.3929697387808552</v>
+        <v>36.64867253123603</v>
+      </c>
+      <c r="L9">
+        <v>5.124867353342821E-05</v>
       </c>
       <c r="M9">
+        <v>0.3929697368389543</v>
+      </c>
+      <c r="O9">
         <v>0.00257</v>
       </c>
-      <c r="N9">
-        <v>0.4140404255556192</v>
-      </c>
-      <c r="O9">
-        <v>0.4073028395439339</v>
-      </c>
-      <c r="R9">
-        <v>0.3142053281481823</v>
+      <c r="P9">
+        <v>0.4140404367664211</v>
+      </c>
+      <c r="Q9">
+        <v>0.3854055313114727</v>
+      </c>
+      <c r="S9">
+        <v>0.01677842809858438</v>
+      </c>
+      <c r="T9">
+        <v>0.5534961161680603</v>
       </c>
       <c r="U9">
-        <v>119.1879168166997</v>
-      </c>
-      <c r="V9" t="s">
-        <v>49</v>
-      </c>
-      <c r="W9" t="s">
-        <v>40</v>
+        <v>0.9977281267835518</v>
+      </c>
+      <c r="V9">
+        <v>0.9978447026848947</v>
+      </c>
+      <c r="W9">
+        <v>144.7414441156303</v>
       </c>
       <c r="X9" t="s">
         <v>51</v>
       </c>
       <c r="Y9" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z9">
+        <v>42</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB9">
         <v>28</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>45</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>3</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>50</v>
       </c>
-      <c r="AE9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG9">
+      <c r="AG9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI9">
         <v>60322</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>1325.004</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:36">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10">
-        <v>0.9977568843223</v>
+        <v>0.9977885244195498</v>
       </c>
       <c r="D10">
-        <v>331.2206004683205</v>
+        <v>5.10756219877545E-05</v>
       </c>
       <c r="E10">
-        <v>1447.524736945334</v>
+        <v>331.2100973890072</v>
       </c>
       <c r="F10">
-        <v>1116.304136477014</v>
+        <v>1447.524736945901</v>
       </c>
       <c r="G10">
-        <v>43156.99290066765</v>
+        <v>1116.314639556894</v>
       </c>
       <c r="H10">
-        <v>3790.648654420056</v>
+        <v>43156.99298094838</v>
       </c>
       <c r="I10">
-        <v>103.7940358126246</v>
+        <v>4048.29717497764</v>
       </c>
       <c r="J10">
-        <v>11.52920847606356</v>
+        <v>103.7940393125416</v>
       </c>
       <c r="K10">
-        <v>0.3925621523975833</v>
+        <v>36.20496107393716</v>
+      </c>
+      <c r="L10">
+        <v>5.10756219877545E-05</v>
       </c>
       <c r="M10">
+        <v>0.3925621538591078</v>
+      </c>
+      <c r="O10">
         <v>0.00244</v>
       </c>
-      <c r="N10">
-        <v>0.4168855850620845</v>
-      </c>
-      <c r="O10">
-        <v>0.4084576872680725</v>
-      </c>
-      <c r="R10">
-        <v>0.3084446521308241</v>
+      <c r="P10">
+        <v>0.4168855854039891</v>
+      </c>
+      <c r="Q10">
+        <v>0.3852463419468657</v>
+      </c>
+      <c r="S10">
+        <v>0.01673986939982667</v>
+      </c>
+      <c r="T10">
+        <v>0.5483982903995287</v>
       </c>
       <c r="U10">
-        <v>115.3232442886881</v>
-      </c>
-      <c r="V10" t="s">
+        <v>0.9977307473602713</v>
+      </c>
+      <c r="V10">
+        <v>0.9978463081707778</v>
+      </c>
+      <c r="W10">
+        <v>139.9990003864787</v>
+      </c>
+      <c r="X10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB10">
+        <v>28</v>
+      </c>
+      <c r="AD10">
+        <v>45</v>
+      </c>
+      <c r="AE10">
+        <v>3</v>
+      </c>
+      <c r="AF10">
         <v>50</v>
       </c>
-      <c r="W10" t="s">
-        <v>41</v>
-      </c>
-      <c r="X10" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z10">
-        <v>28</v>
-      </c>
-      <c r="AB10">
-        <v>45</v>
-      </c>
-      <c r="AC10">
-        <v>3</v>
-      </c>
-      <c r="AD10">
-        <v>50</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG10">
+      <c r="AG10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI10">
         <v>61844</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <v>1325.004</v>
       </c>
     </row>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/PseudoVoigt.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/PseudoVoigt.xlsx
@@ -700,61 +700,61 @@
         <v>35</v>
       </c>
       <c r="C2">
-        <v>0.997896561051162</v>
+        <v>0.9978598860796123</v>
       </c>
       <c r="D2">
-        <v>5.2313663083804E-05</v>
+        <v>3.987360630922584E-05</v>
       </c>
       <c r="E2">
-        <v>331.1742391400919</v>
+        <v>331.1864109950466</v>
       </c>
       <c r="F2">
-        <v>1447.507791470684</v>
+        <v>1447.507791711392</v>
       </c>
       <c r="G2">
-        <v>1116.333552330592</v>
+        <v>1116.321380716346</v>
       </c>
       <c r="H2">
-        <v>49150.08368332532</v>
+        <v>49150.03938907994</v>
       </c>
       <c r="I2">
-        <v>4362.491833843183</v>
+        <v>4064.558187157941</v>
       </c>
       <c r="J2">
-        <v>122.7916866730891</v>
+        <v>122.7893778732266</v>
       </c>
       <c r="K2">
-        <v>37.58367137295518</v>
+        <v>11.05666432640984</v>
       </c>
       <c r="L2">
-        <v>5.2313663083804E-05</v>
+        <v>3.987360630922584E-05</v>
       </c>
       <c r="M2">
-        <v>0.3831036278813937</v>
+        <v>0.3831035754123102</v>
       </c>
       <c r="O2">
-        <v>0.00258</v>
+        <v>0.00257</v>
       </c>
       <c r="P2">
-        <v>0.4052948892728901</v>
+        <v>0.405291536749454</v>
       </c>
       <c r="Q2">
-        <v>0.3763711165836202</v>
+        <v>0.4051926376392343</v>
       </c>
       <c r="S2">
-        <v>0.01713175594471568</v>
+        <v>0.01295310312974792</v>
       </c>
       <c r="T2">
-        <v>0.5361673414973488</v>
+        <v>0.2777918959532876</v>
       </c>
       <c r="U2">
-        <v>0.997837168983715</v>
+        <v>0.9978131173855738</v>
       </c>
       <c r="V2">
-        <v>0.9979559601891567</v>
+        <v>0.9979066591580656</v>
       </c>
       <c r="W2">
-        <v>160.3753580460443</v>
+        <v>133.8460421996364</v>
       </c>
       <c r="X2" t="s">
         <v>44</v>
@@ -801,61 +801,61 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.9978583919231533</v>
+        <v>0.9978264842220211</v>
       </c>
       <c r="D3">
-        <v>4.565285348953152E-05</v>
+        <v>3.57430383875218E-05</v>
       </c>
       <c r="E3">
-        <v>331.1869069013987</v>
+        <v>331.1974973327126</v>
       </c>
       <c r="F3">
-        <v>1447.503005379295</v>
+        <v>1447.503005381121</v>
       </c>
       <c r="G3">
-        <v>1116.316098477896</v>
+        <v>1116.305508048408</v>
       </c>
       <c r="H3">
-        <v>48194.63313585275</v>
+        <v>48194.63294913297</v>
       </c>
       <c r="I3">
-        <v>4544.459593314094</v>
+        <v>4249.843322072755</v>
       </c>
       <c r="J3">
-        <v>113.0786744682815</v>
+        <v>113.0786756227321</v>
       </c>
       <c r="K3">
-        <v>38.28659309920371</v>
+        <v>9.905378667281072</v>
       </c>
       <c r="L3">
-        <v>4.565285348953152E-05</v>
+        <v>3.57430383875218E-05</v>
       </c>
       <c r="M3">
-        <v>0.3857421043462351</v>
+        <v>0.3857421092605332</v>
       </c>
       <c r="O3">
         <v>0.0024</v>
       </c>
       <c r="P3">
-        <v>0.3997919120177397</v>
+        <v>0.3997918883762511</v>
       </c>
       <c r="Q3">
-        <v>0.3858251015384753</v>
+        <v>0.4092017687249572</v>
       </c>
       <c r="S3">
-        <v>0.01492793123151088</v>
+        <v>0.01159216800643426</v>
       </c>
       <c r="T3">
-        <v>0.5337599099023718</v>
+        <v>0.2893279115707663</v>
       </c>
       <c r="U3">
-        <v>0.9978061860037365</v>
+        <v>0.9977843306245427</v>
       </c>
       <c r="V3">
-        <v>0.9979106033057565</v>
+        <v>0.9978686413813932</v>
       </c>
       <c r="W3">
-        <v>151.3652675674852</v>
+        <v>122.9840542900132</v>
       </c>
       <c r="X3" t="s">
         <v>45</v>
@@ -902,61 +902,61 @@
         <v>37</v>
       </c>
       <c r="C4">
-        <v>0.9978480989385766</v>
+        <v>0.9978100509622898</v>
       </c>
       <c r="D4">
-        <v>5.278855377126057E-05</v>
+        <v>3.933335809059285E-05</v>
       </c>
       <c r="E4">
-        <v>331.1903231545623</v>
+        <v>331.2029519325042</v>
       </c>
       <c r="F4">
-        <v>1447.52196219285</v>
+        <v>1447.521962191433</v>
       </c>
       <c r="G4">
-        <v>1116.331639038288</v>
+        <v>1116.319010258929</v>
       </c>
       <c r="H4">
-        <v>46080.5818281855</v>
+        <v>46080.58188972915</v>
       </c>
       <c r="I4">
-        <v>4139.825469419876</v>
+        <v>3842.899468127829</v>
       </c>
       <c r="J4">
-        <v>109.3326948181962</v>
+        <v>109.3326919313476</v>
       </c>
       <c r="K4">
-        <v>38.03395610910056</v>
+        <v>10.20425453009774</v>
       </c>
       <c r="L4">
-        <v>5.278855377126057E-05</v>
+        <v>3.933335809059284E-05</v>
       </c>
       <c r="M4">
-        <v>0.3896353991242444</v>
+        <v>0.3896353958047211</v>
       </c>
       <c r="O4">
         <v>0.00243</v>
       </c>
       <c r="P4">
-        <v>0.4037278410759856</v>
+        <v>0.4037278540818179</v>
       </c>
       <c r="Q4">
-        <v>0.3763134693951743</v>
+        <v>0.406028126976008</v>
       </c>
       <c r="S4">
-        <v>0.01731335967996931</v>
+        <v>0.01279868269207621</v>
       </c>
       <c r="T4">
-        <v>0.5525655849656694</v>
+        <v>0.2818591713753829</v>
       </c>
       <c r="U4">
-        <v>0.9977886174314755</v>
+        <v>0.9977641738530534</v>
       </c>
       <c r="V4">
-        <v>0.9979075875378826</v>
+        <v>0.997855932290571</v>
       </c>
       <c r="W4">
-        <v>147.3666509272968</v>
+        <v>119.5369464614454</v>
       </c>
       <c r="X4" t="s">
         <v>46</v>
@@ -1003,61 +1003,61 @@
         <v>38</v>
       </c>
       <c r="C5">
-        <v>0.9978207612558156</v>
+        <v>0.9977826198315888</v>
       </c>
       <c r="D5">
-        <v>5.436060948940768E-05</v>
+        <v>4.053693854759805E-05</v>
       </c>
       <c r="E5">
-        <v>331.1993969044174</v>
+        <v>331.2120573942375</v>
       </c>
       <c r="F5">
-        <v>1447.539256517825</v>
+        <v>1447.539256518417</v>
       </c>
       <c r="G5">
-        <v>1116.339859613408</v>
+        <v>1116.32719912418</v>
       </c>
       <c r="H5">
-        <v>44440.94210167753</v>
+        <v>44440.9420876005</v>
       </c>
       <c r="I5">
-        <v>4104.992300320984</v>
+        <v>3811.741538002881</v>
       </c>
       <c r="J5">
-        <v>106.9637850463319</v>
+        <v>106.9637865077495</v>
       </c>
       <c r="K5">
-        <v>37.25137617544495</v>
+        <v>10.36403580892033</v>
       </c>
       <c r="L5">
-        <v>5.436060948940769E-05</v>
+        <v>4.053693854759805E-05</v>
       </c>
       <c r="M5">
-        <v>0.3914122306868553</v>
+        <v>0.3914122320374968</v>
       </c>
       <c r="O5">
         <v>0.00242</v>
       </c>
       <c r="P5">
-        <v>0.4092346664193698</v>
+        <v>0.4092346608981216</v>
       </c>
       <c r="Q5">
-        <v>0.3768098899441449</v>
+        <v>0.4082686204520876</v>
       </c>
       <c r="S5">
-        <v>0.01784081994937452</v>
+        <v>0.0132064281462208</v>
       </c>
       <c r="T5">
-        <v>0.5548291256835796</v>
+        <v>0.2859551890075377</v>
       </c>
       <c r="U5">
-        <v>0.9977597242179642</v>
+        <v>0.997735547140579</v>
       </c>
       <c r="V5">
-        <v>0.9978818057618939</v>
+        <v>0.9978296969645427</v>
       </c>
       <c r="W5">
-        <v>144.2151612217769</v>
+        <v>117.3278223166699</v>
       </c>
       <c r="X5" t="s">
         <v>47</v>
@@ -1104,61 +1104,61 @@
         <v>39</v>
       </c>
       <c r="C6">
-        <v>0.997814122301193</v>
+        <v>0.9977781961827885</v>
       </c>
       <c r="D6">
-        <v>4.974505513910675E-05</v>
+        <v>3.799534336316177E-05</v>
       </c>
       <c r="E6">
-        <v>331.2016005390603</v>
+        <v>331.2135258226176</v>
       </c>
       <c r="F6">
-        <v>1447.541011877073</v>
+        <v>1447.541011877257</v>
       </c>
       <c r="G6">
-        <v>1116.339411338013</v>
+        <v>1116.32748605464</v>
       </c>
       <c r="H6">
-        <v>45288.66849869065</v>
+        <v>45288.66855610132</v>
       </c>
       <c r="I6">
-        <v>4234.837719550555</v>
+        <v>3947.474007742397</v>
       </c>
       <c r="J6">
-        <v>110.8975262025576</v>
+        <v>110.8975282102296</v>
       </c>
       <c r="K6">
-        <v>36.32281847508872</v>
+        <v>10.91844694552933</v>
       </c>
       <c r="L6">
-        <v>4.974505513910675E-05</v>
+        <v>3.799534336316177E-05</v>
       </c>
       <c r="M6">
-        <v>0.3933158769491476</v>
+        <v>0.3933158774344163</v>
       </c>
       <c r="O6">
         <v>0.00251</v>
       </c>
       <c r="P6">
-        <v>0.4163762931265969</v>
+        <v>0.4163762948292194</v>
       </c>
       <c r="Q6">
-        <v>0.380078782203427</v>
+        <v>0.4098356067117886</v>
       </c>
       <c r="S6">
-        <v>0.01628332507168512</v>
+        <v>0.01233172102207001</v>
       </c>
       <c r="T6">
-        <v>0.5479834507061182</v>
+        <v>0.2926682750136492</v>
       </c>
       <c r="U6">
-        <v>0.9977575066896275</v>
+        <v>0.997733487615888</v>
       </c>
       <c r="V6">
-        <v>0.9978707443381863</v>
+        <v>0.9978229087566619</v>
       </c>
       <c r="W6">
-        <v>147.2203446776463</v>
+        <v>121.8159751557589</v>
       </c>
       <c r="X6" t="s">
         <v>48</v>
@@ -1205,61 +1205,61 @@
         <v>40</v>
       </c>
       <c r="C7">
-        <v>0.9978118213301276</v>
+        <v>0.997775737608652</v>
       </c>
       <c r="D7">
-        <v>4.719378782912015E-05</v>
+        <v>3.521989263082476E-05</v>
       </c>
       <c r="E7">
-        <v>331.2023642955958</v>
+        <v>331.2143419509093</v>
       </c>
       <c r="F7">
-        <v>1447.539632678569</v>
+        <v>1447.539632678197</v>
       </c>
       <c r="G7">
-        <v>1116.337268382974</v>
+        <v>1116.325290727288</v>
       </c>
       <c r="H7">
-        <v>46370.34172043425</v>
+        <v>46370.34161343362</v>
       </c>
       <c r="I7">
-        <v>4553.967972168738</v>
+        <v>4254.113932483191</v>
       </c>
       <c r="J7">
-        <v>116.1392179472612</v>
+        <v>116.1392139824934</v>
       </c>
       <c r="K7">
-        <v>38.2180215543431</v>
+        <v>11.1446659173381</v>
       </c>
       <c r="L7">
-        <v>4.719378782912015E-05</v>
+        <v>3.521989263082476E-05</v>
       </c>
       <c r="M7">
-        <v>0.3925913697662347</v>
+        <v>0.3925913687643211</v>
       </c>
       <c r="O7">
         <v>0.00257</v>
       </c>
       <c r="P7">
-        <v>0.4170039082183471</v>
+        <v>0.4170039054175857</v>
       </c>
       <c r="Q7">
-        <v>0.3753430593565169</v>
+        <v>0.4046799468193902</v>
       </c>
       <c r="S7">
-        <v>0.01541796673790983</v>
+        <v>0.01137871289278358</v>
       </c>
       <c r="T7">
-        <v>0.5602802454198087</v>
+        <v>0.3126667295924849</v>
       </c>
       <c r="U7">
-        <v>0.997757632009543</v>
+        <v>0.9977337191951056</v>
       </c>
       <c r="V7">
-        <v>0.9978660165371958</v>
+        <v>0.9978177595614622</v>
       </c>
       <c r="W7">
-        <v>154.3572395016043</v>
+        <v>127.2838798998315</v>
       </c>
       <c r="X7" t="s">
         <v>49</v>
@@ -1306,61 +1306,61 @@
         <v>41</v>
       </c>
       <c r="C8">
-        <v>0.9977938696549881</v>
+        <v>0.9977600522180611</v>
       </c>
       <c r="D8">
-        <v>5.095573021791144E-05</v>
+        <v>3.96303108442229E-05</v>
       </c>
       <c r="E8">
-        <v>331.2083230786973</v>
+        <v>331.2195488403927</v>
       </c>
       <c r="F8">
-        <v>1447.534557918066</v>
+        <v>1447.534557918229</v>
       </c>
       <c r="G8">
-        <v>1116.326234839368</v>
+        <v>1116.315009077836</v>
       </c>
       <c r="H8">
-        <v>44105.49498359848</v>
+        <v>44105.49495871713</v>
       </c>
       <c r="I8">
-        <v>4185.412713453706</v>
+        <v>3915.579106580432</v>
       </c>
       <c r="J8">
-        <v>102.6329463740702</v>
+        <v>102.6329463068532</v>
       </c>
       <c r="K8">
-        <v>36.12998131686069</v>
+        <v>11.22393506653637</v>
       </c>
       <c r="L8">
-        <v>5.095573021791144E-05</v>
+        <v>3.96303108442229E-05</v>
       </c>
       <c r="M8">
-        <v>0.3949879250724433</v>
+        <v>0.3949879254397151</v>
       </c>
       <c r="O8">
         <v>0.00236</v>
       </c>
       <c r="P8">
-        <v>0.405804330521413</v>
+        <v>0.4058043278678481</v>
       </c>
       <c r="Q8">
-        <v>0.3811301482375072</v>
+        <v>0.4070156761523468</v>
       </c>
       <c r="S8">
-        <v>0.01671114134009826</v>
+        <v>0.01291243725375591</v>
       </c>
       <c r="T8">
-        <v>0.5454149348693331</v>
+        <v>0.3022478161670795</v>
       </c>
       <c r="U8">
-        <v>0.9977364194916006</v>
+        <v>0.9977140479129187</v>
       </c>
       <c r="V8">
-        <v>0.9978513264347749</v>
+        <v>0.9978060607658893</v>
       </c>
       <c r="W8">
-        <v>138.7629276909309</v>
+        <v>113.8568813733896</v>
       </c>
       <c r="X8" t="s">
         <v>50</v>
@@ -1407,61 +1407,61 @@
         <v>42</v>
       </c>
       <c r="C9">
-        <v>0.9977864113292008</v>
+        <v>0.9977557132171323</v>
       </c>
       <c r="D9">
-        <v>5.124867353342821E-05</v>
+        <v>4.08649213211015E-05</v>
       </c>
       <c r="E9">
-        <v>331.2107988185439</v>
+        <v>331.2209892349813</v>
       </c>
       <c r="F9">
-        <v>1447.51689443075</v>
+        <v>1447.516894431486</v>
       </c>
       <c r="G9">
-        <v>1116.306095612206</v>
+        <v>1116.295905196504</v>
       </c>
       <c r="H9">
-        <v>43261.39615175885</v>
+        <v>43261.39606674626</v>
       </c>
       <c r="I9">
-        <v>4093.701781113318</v>
+        <v>3835.072595910358</v>
       </c>
       <c r="J9">
-        <v>108.0927715843943</v>
+        <v>108.0927717612777</v>
       </c>
       <c r="K9">
-        <v>36.64867253123603</v>
+        <v>11.09514505542197</v>
       </c>
       <c r="L9">
-        <v>5.124867353342821E-05</v>
+        <v>4.08649213211015E-05</v>
       </c>
       <c r="M9">
-        <v>0.3929697368389543</v>
+        <v>0.3929697387808552</v>
       </c>
       <c r="O9">
         <v>0.00257</v>
       </c>
       <c r="P9">
-        <v>0.4140404367664211</v>
+        <v>0.4140404255556192</v>
       </c>
       <c r="Q9">
-        <v>0.3854055313114727</v>
+        <v>0.4073028395439339</v>
       </c>
       <c r="S9">
-        <v>0.01677842809858438</v>
+        <v>0.01328909246086156</v>
       </c>
       <c r="T9">
-        <v>0.5534961161680603</v>
+        <v>0.3142053281481823</v>
       </c>
       <c r="U9">
-        <v>0.9977281267835518</v>
+        <v>0.9977079422635405</v>
       </c>
       <c r="V9">
-        <v>0.9978447026848947</v>
+        <v>0.9978034887455564</v>
       </c>
       <c r="W9">
-        <v>144.7414441156303</v>
+        <v>119.1879168166997</v>
       </c>
       <c r="X9" t="s">
         <v>51</v>
@@ -1508,61 +1508,61 @@
         <v>43</v>
       </c>
       <c r="C10">
-        <v>0.9977885244195498</v>
+        <v>0.9977568843223</v>
       </c>
       <c r="D10">
-        <v>5.10756219877545E-05</v>
+        <v>4.065606820687621E-05</v>
       </c>
       <c r="E10">
-        <v>331.2100973890072</v>
+        <v>331.2206004683205</v>
       </c>
       <c r="F10">
-        <v>1447.524736945901</v>
+        <v>1447.524736945334</v>
       </c>
       <c r="G10">
-        <v>1116.314639556894</v>
+        <v>1116.304136477014</v>
       </c>
       <c r="H10">
-        <v>43156.99298094838</v>
+        <v>43156.99290066765</v>
       </c>
       <c r="I10">
-        <v>4048.29717497764</v>
+        <v>3790.648654420056</v>
       </c>
       <c r="J10">
-        <v>103.7940393125416</v>
+        <v>103.7940358126246</v>
       </c>
       <c r="K10">
-        <v>36.20496107393716</v>
+        <v>11.52920847606356</v>
       </c>
       <c r="L10">
-        <v>5.10756219877545E-05</v>
+        <v>4.065606820687622E-05</v>
       </c>
       <c r="M10">
-        <v>0.3925621538591078</v>
+        <v>0.3925621523975833</v>
       </c>
       <c r="O10">
         <v>0.00244</v>
       </c>
       <c r="P10">
-        <v>0.4168855854039891</v>
+        <v>0.4168855850620845</v>
       </c>
       <c r="Q10">
-        <v>0.3852463419468657</v>
+        <v>0.4084576872680725</v>
       </c>
       <c r="S10">
-        <v>0.01673986939982667</v>
+        <v>0.01324322412067986</v>
       </c>
       <c r="T10">
-        <v>0.5483982903995287</v>
+        <v>0.3084446521308241</v>
       </c>
       <c r="U10">
-        <v>0.9977307473602713</v>
+        <v>0.9977096429855106</v>
       </c>
       <c r="V10">
-        <v>0.9978463081707778</v>
+        <v>0.9978041301330356</v>
       </c>
       <c r="W10">
-        <v>139.9990003864787</v>
+        <v>115.3232442886881</v>
       </c>
       <c r="X10" t="s">
         <v>52</v>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/PseudoVoigt.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/PseudoVoigt.xlsx
@@ -700,61 +700,61 @@
         <v>35</v>
       </c>
       <c r="C2">
-        <v>0.9978598860796123</v>
+        <v>0.997864610145206</v>
       </c>
       <c r="D2">
-        <v>3.987360630922584E-05</v>
+        <v>4.03400576448685E-05</v>
       </c>
       <c r="E2">
-        <v>331.1864109950466</v>
+        <v>331.1848431006515</v>
       </c>
       <c r="F2">
-        <v>1447.507791711392</v>
+        <v>1447.507791857052</v>
       </c>
       <c r="G2">
-        <v>1116.321380716346</v>
+        <v>1116.3229487564</v>
       </c>
       <c r="H2">
-        <v>49150.03938907994</v>
+        <v>49150.05459653677</v>
       </c>
       <c r="I2">
-        <v>4064.558187157941</v>
+        <v>4103.130676205455</v>
       </c>
       <c r="J2">
-        <v>122.7893778732266</v>
+        <v>122.7899562924199</v>
       </c>
       <c r="K2">
-        <v>11.05666432640984</v>
+        <v>11.33966805013822</v>
       </c>
       <c r="L2">
-        <v>3.987360630922584E-05</v>
+        <v>4.03400576448685E-05</v>
       </c>
       <c r="M2">
-        <v>0.3831035754123102</v>
+        <v>0.3831039430169797</v>
       </c>
       <c r="O2">
-        <v>0.00257</v>
+        <v>0.00258</v>
       </c>
       <c r="P2">
-        <v>0.405291536749454</v>
+        <v>0.4052909952313641</v>
       </c>
       <c r="Q2">
-        <v>0.4051926376392343</v>
+        <v>0.4016441217882361</v>
       </c>
       <c r="S2">
-        <v>0.01295310312974792</v>
+        <v>0.01310853227799338</v>
       </c>
       <c r="T2">
-        <v>0.2777918959532876</v>
+        <v>0.3142723187782764</v>
       </c>
       <c r="U2">
-        <v>0.9978131173855738</v>
+        <v>0.9978173426149631</v>
       </c>
       <c r="V2">
-        <v>0.9979066591580656</v>
+        <v>0.9979118821538743</v>
       </c>
       <c r="W2">
-        <v>133.8460421996364</v>
+        <v>134.1296243425581</v>
       </c>
       <c r="X2" t="s">
         <v>44</v>
@@ -770,6 +770,9 @@
       </c>
       <c r="AB2">
         <v>28</v>
+      </c>
+      <c r="AC2">
+        <v>11.978</v>
       </c>
       <c r="AD2">
         <v>45</v>
@@ -801,61 +804,61 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.9978264842220211</v>
+        <v>0.9978292451472734</v>
       </c>
       <c r="D3">
-        <v>3.57430383875218E-05</v>
+        <v>3.583090569095404E-05</v>
       </c>
       <c r="E3">
-        <v>331.1974973327126</v>
+        <v>331.1965809318972</v>
       </c>
       <c r="F3">
-        <v>1447.503005381121</v>
+        <v>1447.503005802524</v>
       </c>
       <c r="G3">
-        <v>1116.305508048408</v>
+        <v>1116.306424870626</v>
       </c>
       <c r="H3">
-        <v>48194.63294913297</v>
+        <v>48194.59125163723</v>
       </c>
       <c r="I3">
-        <v>4249.843322072755</v>
+        <v>4256.947837843626</v>
       </c>
       <c r="J3">
-        <v>113.0786756227321</v>
+        <v>113.0789815084083</v>
       </c>
       <c r="K3">
-        <v>9.905378667281072</v>
+        <v>11.09199890916404</v>
       </c>
       <c r="L3">
-        <v>3.57430383875218E-05</v>
+        <v>3.583090569095404E-05</v>
       </c>
       <c r="M3">
-        <v>0.3857421092605332</v>
+        <v>0.3857432425476348</v>
       </c>
       <c r="O3">
         <v>0.0024</v>
       </c>
       <c r="P3">
-        <v>0.3997918883762511</v>
+        <v>0.399786534923933</v>
       </c>
       <c r="Q3">
-        <v>0.4092017687249572</v>
+        <v>0.4074675873316524</v>
       </c>
       <c r="S3">
-        <v>0.01159216800643426</v>
+        <v>0.01162185150579935</v>
       </c>
       <c r="T3">
-        <v>0.2893279115707663</v>
+        <v>0.3016542752120749</v>
       </c>
       <c r="U3">
-        <v>0.9977843306245427</v>
+        <v>0.9977870018936271</v>
       </c>
       <c r="V3">
-        <v>0.9978686413813932</v>
+        <v>0.997871491977972</v>
       </c>
       <c r="W3">
-        <v>122.9840542900132</v>
+        <v>124.1709804175723</v>
       </c>
       <c r="X3" t="s">
         <v>45</v>
@@ -871,6 +874,9 @@
       </c>
       <c r="AB3">
         <v>28</v>
+      </c>
+      <c r="AC3">
+        <v>12.08</v>
       </c>
       <c r="AD3">
         <v>45</v>
@@ -902,61 +908,61 @@
         <v>37</v>
       </c>
       <c r="C4">
-        <v>0.9978100509622898</v>
+        <v>0.9978095733888616</v>
       </c>
       <c r="D4">
-        <v>3.933335809059285E-05</v>
+        <v>3.906085247667861E-05</v>
       </c>
       <c r="E4">
-        <v>331.2029519325042</v>
+        <v>331.2031104534619</v>
       </c>
       <c r="F4">
-        <v>1447.521962191433</v>
+        <v>1447.521962537725</v>
       </c>
       <c r="G4">
-        <v>1116.319010258929</v>
+        <v>1116.318852084263</v>
       </c>
       <c r="H4">
-        <v>46080.58188972915</v>
+        <v>46080.55311799021</v>
       </c>
       <c r="I4">
-        <v>3842.899468127829</v>
+        <v>3817.579597394361</v>
       </c>
       <c r="J4">
-        <v>109.3326919313476</v>
+        <v>109.3331012484569</v>
       </c>
       <c r="K4">
-        <v>10.20425453009774</v>
+        <v>11.0728536290639</v>
       </c>
       <c r="L4">
-        <v>3.933335809059284E-05</v>
+        <v>3.906085247667862E-05</v>
       </c>
       <c r="M4">
-        <v>0.3896353958047211</v>
+        <v>0.3896362373277412</v>
       </c>
       <c r="O4">
         <v>0.00243</v>
       </c>
       <c r="P4">
-        <v>0.4037278540818179</v>
+        <v>0.4037236656929212</v>
       </c>
       <c r="Q4">
-        <v>0.406028126976008</v>
+        <v>0.4066422061589337</v>
       </c>
       <c r="S4">
-        <v>0.01279868269207621</v>
+        <v>0.01270681042663709</v>
       </c>
       <c r="T4">
-        <v>0.2818591713753829</v>
+        <v>0.2643135192520635</v>
       </c>
       <c r="U4">
-        <v>0.9977641738530534</v>
+        <v>0.9977639730800651</v>
       </c>
       <c r="V4">
-        <v>0.997855932290571</v>
+        <v>0.9978551778659448</v>
       </c>
       <c r="W4">
-        <v>119.5369464614454</v>
+        <v>120.4059548775208</v>
       </c>
       <c r="X4" t="s">
         <v>46</v>
@@ -972,6 +978,9 @@
       </c>
       <c r="AB4">
         <v>28</v>
+      </c>
+      <c r="AC4">
+        <v>19.977</v>
       </c>
       <c r="AD4">
         <v>45</v>
@@ -1003,61 +1012,61 @@
         <v>38</v>
       </c>
       <c r="C5">
-        <v>0.9977826198315888</v>
+        <v>0.9977819301559424</v>
       </c>
       <c r="D5">
-        <v>4.053693854759805E-05</v>
+        <v>4.021169415392708E-05</v>
       </c>
       <c r="E5">
-        <v>331.2120573942375</v>
+        <v>331.2122863309248</v>
       </c>
       <c r="F5">
-        <v>1447.539256518417</v>
+        <v>1447.539256706479</v>
       </c>
       <c r="G5">
-        <v>1116.32719912418</v>
+        <v>1116.326970375554</v>
       </c>
       <c r="H5">
-        <v>44440.9420876005</v>
+        <v>44440.93230787192</v>
       </c>
       <c r="I5">
-        <v>3811.741538002881</v>
+        <v>3778.687317392505</v>
       </c>
       <c r="J5">
-        <v>106.9637865077495</v>
+        <v>106.9642679490747</v>
       </c>
       <c r="K5">
-        <v>10.36403580892033</v>
+        <v>11.41406198750633</v>
       </c>
       <c r="L5">
-        <v>4.053693854759805E-05</v>
+        <v>4.021169415392707E-05</v>
       </c>
       <c r="M5">
-        <v>0.3914122320374968</v>
+        <v>0.3914127086273933</v>
       </c>
       <c r="O5">
         <v>0.00242</v>
       </c>
       <c r="P5">
-        <v>0.4092346608981216</v>
+        <v>0.4092324959144185</v>
       </c>
       <c r="Q5">
-        <v>0.4082686204520876</v>
+        <v>0.4091641516886602</v>
       </c>
       <c r="S5">
-        <v>0.0132064281462208</v>
+        <v>0.0130969040856272</v>
       </c>
       <c r="T5">
-        <v>0.2859551890075377</v>
+        <v>0.2628163049414113</v>
       </c>
       <c r="U5">
-        <v>0.997735547140579</v>
+        <v>0.9977351874418423</v>
       </c>
       <c r="V5">
-        <v>0.9978296969645427</v>
+        <v>0.9978286772499295</v>
       </c>
       <c r="W5">
-        <v>117.3278223166699</v>
+        <v>118.378329936581</v>
       </c>
       <c r="X5" t="s">
         <v>47</v>
@@ -1073,6 +1082,9 @@
       </c>
       <c r="AB5">
         <v>28</v>
+      </c>
+      <c r="AC5">
+        <v>12.044</v>
       </c>
       <c r="AD5">
         <v>45</v>
@@ -1104,61 +1116,61 @@
         <v>39</v>
       </c>
       <c r="C6">
-        <v>0.9977781961827885</v>
+        <v>0.9977783725275983</v>
       </c>
       <c r="D6">
-        <v>3.799534336316177E-05</v>
+        <v>3.762356284133659E-05</v>
       </c>
       <c r="E6">
-        <v>331.2135258226176</v>
+        <v>331.2134672847822</v>
       </c>
       <c r="F6">
-        <v>1447.541011877257</v>
+        <v>1447.541012035804</v>
       </c>
       <c r="G6">
-        <v>1116.32748605464</v>
+        <v>1116.327544751022</v>
       </c>
       <c r="H6">
-        <v>45288.66855610132</v>
+        <v>45288.66273637601</v>
       </c>
       <c r="I6">
-        <v>3947.474007742397</v>
+        <v>3904.517386088566</v>
       </c>
       <c r="J6">
-        <v>110.8975282102296</v>
+        <v>110.8980180547772</v>
       </c>
       <c r="K6">
-        <v>10.91844694552933</v>
+        <v>12.56714227142768</v>
       </c>
       <c r="L6">
-        <v>3.799534336316177E-05</v>
+        <v>3.762356284133659E-05</v>
       </c>
       <c r="M6">
-        <v>0.3933158774344163</v>
+        <v>0.3933162854106986</v>
       </c>
       <c r="O6">
         <v>0.00251</v>
       </c>
       <c r="P6">
-        <v>0.4163762948292194</v>
+        <v>0.4163746000991697</v>
       </c>
       <c r="Q6">
-        <v>0.4098356067117886</v>
+        <v>0.4102546201380286</v>
       </c>
       <c r="S6">
-        <v>0.01233172102207001</v>
+        <v>0.01220602945670827</v>
       </c>
       <c r="T6">
-        <v>0.2926682750136492</v>
+        <v>0.2668567001166197</v>
       </c>
       <c r="U6">
-        <v>0.997733487615888</v>
+        <v>0.9977340425561128</v>
       </c>
       <c r="V6">
-        <v>0.9978229087566619</v>
+        <v>0.9978227064384776</v>
       </c>
       <c r="W6">
-        <v>121.8159751557589</v>
+        <v>123.4651603262049</v>
       </c>
       <c r="X6" t="s">
         <v>48</v>
@@ -1174,6 +1186,9 @@
       </c>
       <c r="AB6">
         <v>28</v>
+      </c>
+      <c r="AC6">
+        <v>19.988</v>
       </c>
       <c r="AD6">
         <v>45</v>
@@ -1205,61 +1220,61 @@
         <v>40</v>
       </c>
       <c r="C7">
-        <v>0.997775737608652</v>
+        <v>0.9977801156790581</v>
       </c>
       <c r="D7">
-        <v>3.521989263082476E-05</v>
+        <v>3.554953358906369E-05</v>
       </c>
       <c r="E7">
-        <v>331.2143419509093</v>
+        <v>331.2128886450298</v>
       </c>
       <c r="F7">
-        <v>1447.539632678197</v>
+        <v>1447.539632846651</v>
       </c>
       <c r="G7">
-        <v>1116.325290727288</v>
+        <v>1116.326744201622</v>
       </c>
       <c r="H7">
-        <v>46370.34161343362</v>
+        <v>46370.33402072885</v>
       </c>
       <c r="I7">
-        <v>4254.113932483191</v>
+        <v>4282.108479381145</v>
       </c>
       <c r="J7">
-        <v>116.1392139824934</v>
+        <v>116.1397256563911</v>
       </c>
       <c r="K7">
-        <v>11.1446659173381</v>
+        <v>12.37561484100051</v>
       </c>
       <c r="L7">
-        <v>3.521989263082476E-05</v>
+        <v>3.554953358906369E-05</v>
       </c>
       <c r="M7">
-        <v>0.3925913687643211</v>
+        <v>0.3925918093317671</v>
       </c>
       <c r="O7">
         <v>0.00257</v>
       </c>
       <c r="P7">
-        <v>0.4170039054175857</v>
+        <v>0.4170020136156424</v>
       </c>
       <c r="Q7">
-        <v>0.4046799468193902</v>
+        <v>0.4013845083479939</v>
       </c>
       <c r="S7">
-        <v>0.01137871289278358</v>
+        <v>0.01149056550647157</v>
       </c>
       <c r="T7">
-        <v>0.3126667295924849</v>
+        <v>0.3407948763191531</v>
       </c>
       <c r="U7">
-        <v>0.9977337191951056</v>
+        <v>0.9977377599688388</v>
       </c>
       <c r="V7">
-        <v>0.9978177595614622</v>
+        <v>0.9978224749855779</v>
       </c>
       <c r="W7">
-        <v>127.2838798998315</v>
+        <v>128.5153404973916</v>
       </c>
       <c r="X7" t="s">
         <v>49</v>
@@ -1275,6 +1290,9 @@
       </c>
       <c r="AB7">
         <v>28</v>
+      </c>
+      <c r="AC7">
+        <v>12.039</v>
       </c>
       <c r="AD7">
         <v>45</v>
@@ -1306,61 +1324,61 @@
         <v>41</v>
       </c>
       <c r="C8">
-        <v>0.9977600522180611</v>
+        <v>0.997763519810411</v>
       </c>
       <c r="D8">
-        <v>3.96303108442229E-05</v>
+        <v>3.996281559342204E-05</v>
       </c>
       <c r="E8">
-        <v>331.2195488403927</v>
+        <v>331.2183977315869</v>
       </c>
       <c r="F8">
-        <v>1447.534557918229</v>
+        <v>1447.534558137279</v>
       </c>
       <c r="G8">
-        <v>1116.315009077836</v>
+        <v>1116.316160405692</v>
       </c>
       <c r="H8">
-        <v>44105.49495871713</v>
+        <v>44105.47704015052</v>
       </c>
       <c r="I8">
-        <v>3915.579106580432</v>
+        <v>3941.970379392729</v>
       </c>
       <c r="J8">
-        <v>102.6329463068532</v>
+        <v>102.6333952862651</v>
       </c>
       <c r="K8">
-        <v>11.22393506653637</v>
+        <v>11.52098883377944</v>
       </c>
       <c r="L8">
-        <v>3.96303108442229E-05</v>
+        <v>3.996281559342204E-05</v>
       </c>
       <c r="M8">
-        <v>0.3949879254397151</v>
+        <v>0.3949885259756325</v>
       </c>
       <c r="O8">
         <v>0.00236</v>
       </c>
       <c r="P8">
-        <v>0.4058043278678481</v>
+        <v>0.4058012811822291</v>
       </c>
       <c r="Q8">
-        <v>0.4070156761523468</v>
+        <v>0.4044871219574797</v>
       </c>
       <c r="S8">
-        <v>0.01291243725375591</v>
+        <v>0.01302433137593426</v>
       </c>
       <c r="T8">
-        <v>0.3022478161670795</v>
+        <v>0.3286078745419824</v>
       </c>
       <c r="U8">
-        <v>0.9977140479129187</v>
+        <v>0.9977171781464422</v>
       </c>
       <c r="V8">
-        <v>0.9978060607658893</v>
+        <v>0.9978098657795067</v>
       </c>
       <c r="W8">
-        <v>113.8568813733896</v>
+        <v>114.1543841200446</v>
       </c>
       <c r="X8" t="s">
         <v>50</v>
@@ -1376,6 +1394,9 @@
       </c>
       <c r="AB8">
         <v>28</v>
+      </c>
+      <c r="AC8">
+        <v>12.059</v>
       </c>
       <c r="AD8">
         <v>45</v>
@@ -1407,61 +1428,61 @@
         <v>42</v>
       </c>
       <c r="C9">
-        <v>0.9977557132171323</v>
+        <v>0.9977587176510911</v>
       </c>
       <c r="D9">
-        <v>4.08649213211015E-05</v>
+        <v>4.11619038602536E-05</v>
       </c>
       <c r="E9">
-        <v>331.2209892349813</v>
+        <v>331.2199918680124</v>
       </c>
       <c r="F9">
-        <v>1447.516894431486</v>
+        <v>1447.516894809508</v>
       </c>
       <c r="G9">
-        <v>1116.295905196504</v>
+        <v>1116.296902941496</v>
       </c>
       <c r="H9">
-        <v>43261.39606674626</v>
+        <v>43261.36597323853</v>
       </c>
       <c r="I9">
-        <v>3835.072595910358</v>
+        <v>3858.442438382513</v>
       </c>
       <c r="J9">
-        <v>108.0927717612777</v>
+        <v>108.0931650600248</v>
       </c>
       <c r="K9">
-        <v>11.09514505542197</v>
+        <v>11.88368840996711</v>
       </c>
       <c r="L9">
-        <v>4.08649213211015E-05</v>
+        <v>4.11619038602536E-05</v>
       </c>
       <c r="M9">
-        <v>0.3929697387808552</v>
+        <v>0.392970700582273</v>
       </c>
       <c r="O9">
         <v>0.00257</v>
       </c>
       <c r="P9">
-        <v>0.4140404255556192</v>
+        <v>0.4140357776661653</v>
       </c>
       <c r="Q9">
-        <v>0.4073028395439339</v>
+        <v>0.4052672146144209</v>
       </c>
       <c r="S9">
-        <v>0.01328909246086156</v>
+        <v>0.01338922658632062</v>
       </c>
       <c r="T9">
-        <v>0.3142053281481823</v>
+        <v>0.3383168108910171</v>
       </c>
       <c r="U9">
-        <v>0.9977079422635405</v>
+        <v>0.9977106447972814</v>
       </c>
       <c r="V9">
-        <v>0.9978034887455564</v>
+        <v>0.9978067951377283</v>
       </c>
       <c r="W9">
-        <v>119.1879168166997</v>
+        <v>119.9768534699919</v>
       </c>
       <c r="X9" t="s">
         <v>51</v>
@@ -1477,6 +1498,9 @@
       </c>
       <c r="AB9">
         <v>28</v>
+      </c>
+      <c r="AC9">
+        <v>12.094</v>
       </c>
       <c r="AD9">
         <v>45</v>
@@ -1508,61 +1532,61 @@
         <v>43</v>
       </c>
       <c r="C10">
-        <v>0.9977568843223</v>
+        <v>0.9977601746701813</v>
       </c>
       <c r="D10">
-        <v>4.065606820687621E-05</v>
+        <v>4.086339614387934E-05</v>
       </c>
       <c r="E10">
-        <v>331.2206004683205</v>
+        <v>331.2195081908087</v>
       </c>
       <c r="F10">
-        <v>1447.524736945334</v>
+        <v>1447.52473729567</v>
       </c>
       <c r="G10">
-        <v>1116.304136477014</v>
+        <v>1116.305229104861</v>
       </c>
       <c r="H10">
-        <v>43156.99290066765</v>
+        <v>43156.96590535386</v>
       </c>
       <c r="I10">
-        <v>3790.648654420056</v>
+        <v>3811.220077453418</v>
       </c>
       <c r="J10">
-        <v>103.7940358126246</v>
+        <v>103.7944535080573</v>
       </c>
       <c r="K10">
-        <v>11.52920847606356</v>
+        <v>12.61453751755598</v>
       </c>
       <c r="L10">
-        <v>4.065606820687622E-05</v>
+        <v>4.086339614387934E-05</v>
       </c>
       <c r="M10">
-        <v>0.3925621523975833</v>
+        <v>0.3925630102433947</v>
       </c>
       <c r="O10">
         <v>0.00244</v>
       </c>
       <c r="P10">
-        <v>0.4168855850620845</v>
+        <v>0.4168813180695979</v>
       </c>
       <c r="Q10">
-        <v>0.4084576872680725</v>
+        <v>0.4062179138014888</v>
       </c>
       <c r="S10">
-        <v>0.01324322412067986</v>
+        <v>0.01331299985468358</v>
       </c>
       <c r="T10">
-        <v>0.3084446521308241</v>
+        <v>0.3314984253568839</v>
       </c>
       <c r="U10">
-        <v>0.9977096429855106</v>
+        <v>0.9977127228504987</v>
       </c>
       <c r="V10">
-        <v>0.9978041301330356</v>
+        <v>0.9978076310037529</v>
       </c>
       <c r="W10">
-        <v>115.3232442886881</v>
+        <v>116.4089910256133</v>
       </c>
       <c r="X10" t="s">
         <v>52</v>
@@ -1578,6 +1602,9 @@
       </c>
       <c r="AB10">
         <v>28</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>45</v>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/PseudoVoigt.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/PseudoVoigt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,94 +616,94 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ne1.txt</t>
+          <t>Ne_lines_1.txt</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9978617952933246</v>
+        <v>0.9976777972548549</v>
       </c>
       <c r="D2" t="n">
-        <v>4.007306344460665e-05</v>
+        <v>3.820296003693668e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>331.1857773345134</v>
+        <v>331.2468567065976</v>
       </c>
       <c r="F2" t="n">
-        <v>1447.507791857052</v>
+        <v>1447.583483554174</v>
       </c>
       <c r="G2" t="n">
-        <v>1116.322014522539</v>
+        <v>1116.336626847577</v>
       </c>
       <c r="H2" t="n">
-        <v>49150.05459648712</v>
+        <v>46682.92570200779</v>
       </c>
       <c r="I2" t="n">
-        <v>4083.054797779704</v>
+        <v>4597.466622049759</v>
       </c>
       <c r="J2" t="n">
-        <v>122.7899562913393</v>
+        <v>119.1017680030098</v>
       </c>
       <c r="K2" t="n">
-        <v>10.50370482604251</v>
+        <v>11.72070230557635</v>
       </c>
       <c r="L2" t="n">
-        <v>4.007306344460666e-05</v>
+        <v>3.820296003693668e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3831039430175459</v>
+        <v>0.4114408752684049</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>0.00258</v>
+        <v>0.00254</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4052909952271532</v>
+        <v>0.4048831178384279</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4037279842245844</v>
+        <v>0.4154144231256527</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>0.01301843798144727</v>
+        <v>0.0123970788943553</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2944107513328523</v>
+        <v>0.3629131935521701</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9978147994579613</v>
+        <v>0.997632810503445</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9979087955557873</v>
+        <v>0.9977227880636678</v>
       </c>
       <c r="W2" t="n">
-        <v>133.2936611173818</v>
+        <v>130.8224703085862</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Ne1</t>
+          <t>Ne_lines_1</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Ne1.txt</t>
+          <t>Ne_lines_1.txt</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t xml:space="preserve">October 28, 2022
+          <t xml:space="preserve">September 20, 2023
 </t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>September</t>
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.978</v>
+        <v>19.982</v>
       </c>
       <c r="AD2" t="n">
         <v>45</v>
@@ -721,12 +721,12 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve">11:58:18 AM
+          <t xml:space="preserve">2:20:52 PM
 </t>
         </is>
       </c>
       <c r="AI2" t="n">
-        <v>43098</v>
+        <v>51652</v>
       </c>
       <c r="AJ2" t="n">
         <v>1325.004</v>
@@ -738,94 +738,94 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ne2.txt</t>
+          <t>Ne_lines_2.txt</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9978258260102805</v>
+        <v>0.9976720597815372</v>
       </c>
       <c r="D3" t="n">
-        <v>3.565235219280199e-05</v>
+        <v>3.55141706454311e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>331.1977158057923</v>
+        <v>331.24876166122</v>
       </c>
       <c r="F3" t="n">
-        <v>1447.503005802524</v>
+        <v>1447.602850669165</v>
       </c>
       <c r="G3" t="n">
-        <v>1116.305289996731</v>
+        <v>1116.354089007945</v>
       </c>
       <c r="H3" t="n">
-        <v>48194.59125160822</v>
+        <v>46630.82592613831</v>
       </c>
       <c r="I3" t="n">
-        <v>4242.325401144592</v>
+        <v>4618.53904943576</v>
       </c>
       <c r="J3" t="n">
-        <v>113.0789815082761</v>
+        <v>126.1395892928885</v>
       </c>
       <c r="K3" t="n">
-        <v>9.610833404487124</v>
+        <v>12.56166502823557</v>
       </c>
       <c r="L3" t="n">
-        <v>3.565235219280199e-05</v>
+        <v>3.55141706454311e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3857432425478796</v>
+        <v>0.413588416755558</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>0.0024</v>
+        <v>0.00275</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3997865349216357</v>
+        <v>0.4134535315146298</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.409678711821656</v>
+        <v>0.4228020513747158</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>0.01156150229092824</v>
+        <v>0.01143808486257576</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2829135990146214</v>
+        <v>0.346110521780603</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9977837648496681</v>
+        <v>0.9976293292079543</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9978678907171838</v>
+        <v>0.9977147940157585</v>
       </c>
       <c r="W3" t="n">
-        <v>122.6898149127632</v>
+        <v>138.701254321124</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Ne2</t>
+          <t>Ne_lines_2</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Ne2.txt</t>
+          <t>Ne_lines_2.txt</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t xml:space="preserve">October 28, 2022
+          <t xml:space="preserve">September 20, 2023
 </t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>September</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="n">
-        <v>12.08</v>
+        <v>12.102</v>
       </c>
       <c r="AD3" t="n">
         <v>45</v>
@@ -838,17 +838,17 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>['0h', '2m', '16s']</t>
+          <t>['0h', '2m', '17s']</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve">12:25:51 PM
+          <t xml:space="preserve">2:30:15 PM
 </t>
         </is>
       </c>
       <c r="AI3" t="n">
-        <v>44751</v>
+        <v>52215</v>
       </c>
       <c r="AJ3" t="n">
         <v>1325.004</v>
@@ -860,94 +860,94 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ne3.txt</t>
+          <t>Ne_lines_3.txt</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9978101813239998</v>
+        <v>0.9976602992577229</v>
       </c>
       <c r="D4" t="n">
-        <v>3.932517577902326e-05</v>
+        <v>3.672670265965171e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>331.2029086615655</v>
+        <v>331.2526664562217</v>
       </c>
       <c r="F4" t="n">
-        <v>1447.521962537726</v>
+        <v>1447.62470846539</v>
       </c>
       <c r="G4" t="n">
-        <v>1116.31905387616</v>
+        <v>1116.372042009168</v>
       </c>
       <c r="H4" t="n">
-        <v>46080.55311799225</v>
+        <v>44940.54075914595</v>
       </c>
       <c r="I4" t="n">
-        <v>3844.111049639001</v>
+        <v>4501.199855470801</v>
       </c>
       <c r="J4" t="n">
-        <v>109.3331012483333</v>
+        <v>124.5049356960575</v>
       </c>
       <c r="K4" t="n">
-        <v>10.203235920522</v>
+        <v>13.1130663661634</v>
       </c>
       <c r="L4" t="n">
-        <v>3.932517577902325e-05</v>
+        <v>3.672670265965172e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3896362373278811</v>
+        <v>0.4138258581280082</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>0.00243</v>
+        <v>0.00289</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4037236656927234</v>
+        <v>0.4202757557542137</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4059290935423132</v>
+        <v>0.4173876077687431</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>0.0127959225311345</v>
+        <v>0.01181757302234964</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2830122406170349</v>
+        <v>0.3467561388231087</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9977643125175089</v>
+        <v>0.9976160052437232</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9978560543480081</v>
+        <v>0.9977045972051936</v>
       </c>
       <c r="W4" t="n">
-        <v>119.5363371688553</v>
+        <v>137.6180020622209</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Ne3</t>
+          <t>Ne_lines_3</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Ne3.txt</t>
+          <t>Ne_lines_3.txt</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t xml:space="preserve">October 28, 2022
+          <t xml:space="preserve">September 20, 2023
 </t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>September</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="n">
-        <v>19.977</v>
+        <v>12.22</v>
       </c>
       <c r="AD4" t="n">
         <v>45</v>
@@ -965,12 +965,12 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1:02:56 PM
+          <t xml:space="preserve">2:41:36 PM
 </t>
         </is>
       </c>
       <c r="AI4" t="n">
-        <v>46976</v>
+        <v>52896</v>
       </c>
       <c r="AJ4" t="n">
         <v>1325.004</v>
@@ -982,94 +982,94 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ne4.txt</t>
+          <t>Ne_lines_4.txt</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9977824523808294</v>
+        <v>0.9976370900488032</v>
       </c>
       <c r="D5" t="n">
-        <v>4.053371373506143e-05</v>
+        <v>3.133687321987576e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>331.2121129792104</v>
+        <v>331.2603727779069</v>
       </c>
       <c r="F5" t="n">
-        <v>1447.539256706479</v>
+        <v>1447.661848535337</v>
       </c>
       <c r="G5" t="n">
-        <v>1116.327143727268</v>
+        <v>1116.40147575743</v>
       </c>
       <c r="H5" t="n">
-        <v>44440.93230792412</v>
+        <v>45431.56888359049</v>
       </c>
       <c r="I5" t="n">
-        <v>3810.133872752119</v>
+        <v>4766.487748706169</v>
       </c>
       <c r="J5" t="n">
-        <v>106.9642679497211</v>
+        <v>119.7467600743447</v>
       </c>
       <c r="K5" t="n">
-        <v>10.31083445859137</v>
+        <v>13.5299649394032</v>
       </c>
       <c r="L5" t="n">
-        <v>4.053371373506143e-05</v>
+        <v>3.133687321987576e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3914127086269353</v>
+        <v>0.4189172301400295</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>0.00242</v>
+        <v>0.00281</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4092324959191901</v>
+        <v>0.4041124382672924</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4084036367156763</v>
+        <v>0.4178737452767803</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>0.01320534455413202</v>
+        <v>0.009993102191158117</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2844261726305283</v>
+        <v>0.3537671877101221</v>
       </c>
       <c r="U5" t="n">
-        <v>0.997735382969652</v>
+        <v>0.9975985332004269</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9978295262333325</v>
+        <v>0.9976756498777132</v>
       </c>
       <c r="W5" t="n">
-        <v>117.2751024083124</v>
+        <v>133.2767250137479</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Ne4</t>
+          <t>Ne_lines_4</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Ne4.txt</t>
+          <t>Ne_lines_4.txt</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t xml:space="preserve">October 28, 2022
+          <t xml:space="preserve">September 20, 2023
 </t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>September</t>
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.044</v>
+        <v>11.946</v>
       </c>
       <c r="AD5" t="n">
         <v>45</v>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>['0h', '2m', '16s']</t>
+          <t>['0h', '2m', '17s']</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1:34:44 PM
+          <t xml:space="preserve">3:02:24 PM
 </t>
         </is>
       </c>
       <c r="AI5" t="n">
-        <v>48884</v>
+        <v>54144</v>
       </c>
       <c r="AJ5" t="n">
         <v>1325.004</v>
@@ -1104,94 +1104,94 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ne5.txt</t>
+          <t>Ne_lines_5.txt</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9977788799060678</v>
+        <v>0.9976267202081073</v>
       </c>
       <c r="D6" t="n">
-        <v>3.807555758219435e-05</v>
+        <v>2.799703337055771e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>331.2132988601086</v>
+        <v>331.2638160670901</v>
       </c>
       <c r="F6" t="n">
-        <v>1447.541012035804</v>
+        <v>1447.681417025652</v>
       </c>
       <c r="G6" t="n">
-        <v>1116.327713175696</v>
+        <v>1116.417600958562</v>
       </c>
       <c r="H6" t="n">
-        <v>45288.66273647545</v>
+        <v>44827.9691712049</v>
       </c>
       <c r="I6" t="n">
-        <v>3954.163803170576</v>
+        <v>4825.845692145009</v>
       </c>
       <c r="J6" t="n">
-        <v>110.8980180575212</v>
+        <v>118.1176401635898</v>
       </c>
       <c r="K6" t="n">
-        <v>10.78930666634102</v>
+        <v>15.13350650930987</v>
       </c>
       <c r="L6" t="n">
-        <v>3.807555758219435e-05</v>
+        <v>2.799703337055771e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3933162854110051</v>
+        <v>0.4186457397689967</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>0.00251</v>
+        <v>0.00287</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4163746001045167</v>
+        <v>0.4035300751118815</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4092799899992106</v>
+        <v>0.4208030978983725</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>0.01235882380831009</v>
+        <v>0.008819165019953149</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2988088348154813</v>
+        <v>0.3417541860174331</v>
       </c>
       <c r="U6" t="n">
-        <v>0.997734089638173</v>
+        <v>0.9975915186215827</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9978236741955917</v>
+        <v>0.9976619242790062</v>
       </c>
       <c r="W6" t="n">
-        <v>121.6873247238622</v>
+        <v>133.2511466728996</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Ne5</t>
+          <t>Ne_lines_5</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Ne5.txt</t>
+          <t>Ne_lines_5.txt</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t xml:space="preserve">October 28, 2022
+          <t xml:space="preserve">September 20, 2023
 </t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>September</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>19.988</v>
+        <v>12.081</v>
       </c>
       <c r="AD6" t="n">
         <v>45</v>
@@ -1200,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
@@ -1209,12 +1209,12 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve">2:06:40 PM
+          <t xml:space="preserve">3:13:05 PM
 </t>
         </is>
       </c>
       <c r="AI6" t="n">
-        <v>50800</v>
+        <v>54785</v>
       </c>
       <c r="AJ6" t="n">
         <v>1325.004</v>
@@ -1222,98 +1222,98 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ne6.txt</t>
+          <t>Ne_lines_6.txt</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9977763498272467</v>
+        <v>0.9976187103018689</v>
       </c>
       <c r="D7" t="n">
-        <v>3.527488935334543e-05</v>
+        <v>2.713601064308329e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>331.2141387234235</v>
+        <v>331.2664757927744</v>
       </c>
       <c r="F7" t="n">
-        <v>1447.539632846653</v>
+        <v>1447.700543698599</v>
       </c>
       <c r="G7" t="n">
-        <v>1116.325494123229</v>
+        <v>1116.434067905825</v>
       </c>
       <c r="H7" t="n">
-        <v>46370.33402040426</v>
+        <v>44686.18175345768</v>
       </c>
       <c r="I7" t="n">
-        <v>4260.213251100246</v>
+        <v>4641.502572567449</v>
       </c>
       <c r="J7" t="n">
-        <v>116.1397256524644</v>
+        <v>118.5309890733974</v>
       </c>
       <c r="K7" t="n">
-        <v>11.00044820463055</v>
+        <v>13.95485095239556</v>
       </c>
       <c r="L7" t="n">
-        <v>3.527488935334543e-05</v>
+        <v>2.713601064308329e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3925918093344982</v>
+        <v>0.4194499232246681</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>0.00257</v>
+        <v>0.00296</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4170020135875146</v>
+        <v>0.4050007708985622</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4041943451496055</v>
+        <v>0.430977415014005</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>0.01139737934363643</v>
+        <v>0.008487934176223004</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3178841550721995</v>
+        <v>0.3055811487320741</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9977342751345456</v>
+        <v>0.9975842357036222</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9978184280686972</v>
+        <v>0.9976531872829499</v>
       </c>
       <c r="W7" t="n">
-        <v>127.1401738570949</v>
+        <v>132.4858400257929</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Ne6</t>
+          <t>Ne_lines_6</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Ne6.txt</t>
+          <t>Ne_lines_6.txt</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t xml:space="preserve">October 28, 2022
+          <t xml:space="preserve">September 20, 2023
 </t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>September</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.039</v>
+        <v>12.05</v>
       </c>
       <c r="AD7" t="n">
         <v>45</v>
@@ -1331,12 +1331,12 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2:25:28 PM
+          <t xml:space="preserve">3:31:31 PM
 </t>
         </is>
       </c>
       <c r="AI7" t="n">
-        <v>51928</v>
+        <v>55891</v>
       </c>
       <c r="AJ7" t="n">
         <v>1325.004</v>
@@ -1344,98 +1344,98 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ne6 (1).txt</t>
+          <t>Ne_lines_7.txt</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9977612486457194</v>
+        <v>0.9976038119728091</v>
       </c>
       <c r="D8" t="n">
-        <v>3.979198731446652e-05</v>
+        <v>2.70518694841627e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>331.219151671</v>
+        <v>331.2714229640899</v>
       </c>
       <c r="F8" t="n">
-        <v>1447.534558137278</v>
+        <v>1447.727487920141</v>
       </c>
       <c r="G8" t="n">
-        <v>1116.315406466278</v>
+        <v>1116.456064956051</v>
       </c>
       <c r="H8" t="n">
-        <v>44105.47704038439</v>
+        <v>45554.91418330932</v>
       </c>
       <c r="I8" t="n">
-        <v>3927.014636788233</v>
+        <v>4807.200805908469</v>
       </c>
       <c r="J8" t="n">
-        <v>102.6333952862399</v>
+        <v>120.0039602307503</v>
       </c>
       <c r="K8" t="n">
-        <v>10.83061069684223</v>
+        <v>13.2512282603179</v>
       </c>
       <c r="L8" t="n">
-        <v>3.979198731446651e-05</v>
+        <v>2.705186948416269e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3949885259718106</v>
+        <v>0.4203562292693982</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>0.00236</v>
+        <v>0.00312</v>
       </c>
       <c r="P8" t="n">
-        <v>0.405801281209347</v>
+        <v>0.3977579615116462</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4061155418239204</v>
+        <v>0.4370841588477775</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>0.01296685497413874</v>
+        <v>0.008400850239209489</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3128750646489257</v>
+        <v>0.280750784160972</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9977150803179994</v>
+        <v>0.9975691188371361</v>
       </c>
       <c r="V8" t="n">
-        <v>0.9978074212464291</v>
+        <v>0.9976385075216594</v>
       </c>
       <c r="W8" t="n">
-        <v>113.4640059830822</v>
+        <v>133.2551884910682</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Ne6 (1)</t>
+          <t>Ne_lines_7</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Ne6 (1).txt</t>
+          <t>Ne_lines_7.txt</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t xml:space="preserve">October 28, 2022
+          <t xml:space="preserve">September 20, 2023
 </t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>September</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
-        <v>12.059</v>
+        <v>11.945</v>
       </c>
       <c r="AD8" t="n">
         <v>45</v>
@@ -1448,17 +1448,17 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>['0h', '2m', '16s']</t>
+          <t>['0h', '2m', '17s']</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t xml:space="preserve">2:47:12 PM
+          <t xml:space="preserve">3:53:03 PM
 </t>
         </is>
       </c>
       <c r="AI8" t="n">
-        <v>53232</v>
+        <v>57183</v>
       </c>
       <c r="AJ8" t="n">
         <v>1325.004</v>
@@ -1470,94 +1470,94 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ne7.txt</t>
+          <t>Ne_lines_8.txt</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9977560655621948</v>
+        <v>0.9975833720074658</v>
       </c>
       <c r="D9" t="n">
-        <v>4.08979501478146e-05</v>
+        <v>3.011535043927592e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>331.2208722684359</v>
+        <v>331.278210543549</v>
       </c>
       <c r="F9" t="n">
-        <v>1447.516894809508</v>
+        <v>1447.755280728591</v>
       </c>
       <c r="G9" t="n">
-        <v>1116.296022541072</v>
+        <v>1116.477070185042</v>
       </c>
       <c r="H9" t="n">
-        <v>43261.36597325881</v>
+        <v>46863.93701623962</v>
       </c>
       <c r="I9" t="n">
-        <v>3838.599514492405</v>
+        <v>4402.313000636223</v>
       </c>
       <c r="J9" t="n">
-        <v>108.0931650604486</v>
+        <v>123.4122020795353</v>
       </c>
       <c r="K9" t="n">
-        <v>11.09158817986774</v>
+        <v>14.63220645908284</v>
       </c>
       <c r="L9" t="n">
-        <v>4.08979501478146e-05</v>
+        <v>3.011535043927592e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3929707005820032</v>
+        <v>0.4233768957524429</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>0.00257</v>
+        <v>0.00314</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4140357776682225</v>
+        <v>0.3951333860325856</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4070547078306608</v>
+        <v>0.4439402344671336</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>0.01330022996011561</v>
+        <v>0.009469537345080405</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3175649683692045</v>
+        <v>0.2382681964002549</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9977082610279355</v>
+        <v>0.9975454021513104</v>
       </c>
       <c r="V9" t="n">
-        <v>0.997803874677719</v>
+        <v>0.9976213447542465</v>
       </c>
       <c r="W9" t="n">
-        <v>119.1847532403163</v>
+        <v>138.0444085386182</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Ne7</t>
+          <t>Ne_lines_8</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Ne7.txt</t>
+          <t>Ne_lines_8.txt</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t xml:space="preserve">October 28, 2022
+          <t xml:space="preserve">September 20, 2023
 </t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>September</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.094</v>
+        <v>11.853</v>
       </c>
       <c r="AD9" t="n">
         <v>45</v>
@@ -1566,21 +1566,21 @@
         <v>3</v>
       </c>
       <c r="AF9" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>['0h', '2m', '16s']</t>
+          <t>['0h', '2m', '17s']</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t xml:space="preserve">4:45:22 PM
+          <t xml:space="preserve">4:25:13 PM
 </t>
         </is>
       </c>
       <c r="AI9" t="n">
-        <v>60322</v>
+        <v>59113</v>
       </c>
       <c r="AJ9" t="n">
         <v>1325.004</v>
@@ -1592,94 +1592,94 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ne8.txt</t>
+          <t>Ne_lines_9.txt</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9977565018366399</v>
+        <v>0.9975758836115708</v>
       </c>
       <c r="D10" t="n">
-        <v>4.054053112137161e-05</v>
+        <v>3.319493391647526e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>331.220727440312</v>
+        <v>331.2806973141624</v>
       </c>
       <c r="F10" t="n">
-        <v>1447.524737295669</v>
+        <v>1447.769583255917</v>
       </c>
       <c r="G10" t="n">
-        <v>1116.304009855357</v>
+        <v>1116.488885941754</v>
       </c>
       <c r="H10" t="n">
-        <v>43156.96590547359</v>
+        <v>49165.1742030134</v>
       </c>
       <c r="I10" t="n">
-        <v>3786.788851608387</v>
+        <v>4322.409418499949</v>
       </c>
       <c r="J10" t="n">
-        <v>103.794453509422</v>
+        <v>128.9423951742382</v>
       </c>
       <c r="K10" t="n">
-        <v>11.42999774913573</v>
+        <v>15.08572350489327</v>
       </c>
       <c r="L10" t="n">
-        <v>4.05405311213716e-05</v>
+        <v>3.319493391647526e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3925630102422506</v>
+        <v>0.4230824644631638</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>0.00244</v>
+        <v>0.00316</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4168813180806564</v>
+        <v>0.3913731837809407</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4087359115928157</v>
+        <v>0.4543415922418678</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>0.01320431509814023</v>
+        <v>0.0105330389154052</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3047574682687479</v>
+        <v>0.228026922051465</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9977093777330179</v>
+        <v>0.9975346518678617</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9978036303920312</v>
+        <v>0.9976171187639373</v>
       </c>
       <c r="W10" t="n">
-        <v>115.2244512585577</v>
+        <v>144.0281186791315</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Ne8</t>
+          <t>Ne_lines_9</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Ne8.txt</t>
+          <t>Ne_lines_9.txt</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t xml:space="preserve">October 28, 2022
+          <t xml:space="preserve">September 20, 2023
 </t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>September</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>11.842</v>
       </c>
       <c r="AD10" t="n">
         <v>45</v>
@@ -1692,19 +1692,141 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>['0h', '2m', '16s']</t>
+          <t>['0h', '2m', '17s']</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t xml:space="preserve">5:10:44 PM
+          <t xml:space="preserve">5:02:51 PM
 </t>
         </is>
       </c>
       <c r="AI10" t="n">
-        <v>61844</v>
+        <v>61371</v>
       </c>
       <c r="AJ10" t="n">
+        <v>1325.004</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ne_lines_10.txt</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9975700120419233</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.237068021717647e-05</v>
+      </c>
+      <c r="E11" t="n">
+        <v>331.2826471900244</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1447.782005064451</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1116.499357874427</v>
+      </c>
+      <c r="H11" t="n">
+        <v>48792.80313976954</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4614.105495822576</v>
+      </c>
+      <c r="J11" t="n">
+        <v>122.3242753514026</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15.16387060697392</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.237068021717647e-05</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.4234179882475531</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>0.00306</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.3910597179638211</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.4516970534099738</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>0.01027799804083842</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.2525646905223139</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.9975298498079659</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.9976101775100096</v>
+      </c>
+      <c r="W11" t="n">
+        <v>137.4881459583765</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Ne_lines_10</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Ne_lines_10.txt</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">September 20, 2023
+</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11.862</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>['0h', '2m', '17s']</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5:25:54 PM
+</t>
+        </is>
+      </c>
+      <c r="AI11" t="n">
+        <v>62754</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>1325.004</v>
       </c>
     </row>
